--- a/ondebmh/081283388128 jaksel/081283389128/1 angka last.xlsx
+++ b/ondebmh/081283388128 jaksel/081283389128/1 angka last.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId2"/>
@@ -127,94 +127,94 @@
     <t xml:space="preserve">628128338934</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338845</t>
+    <t xml:space="preserve">628128338945</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338846</t>
+    <t xml:space="preserve">628128338946</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338847</t>
+    <t xml:space="preserve">628128338947</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338848</t>
+    <t xml:space="preserve">628128338948</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338849</t>
+    <t xml:space="preserve">628128338949</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338840</t>
+    <t xml:space="preserve">628128338940</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338841</t>
+    <t xml:space="preserve">628128338941</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338842</t>
+    <t xml:space="preserve">628128338942</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338843</t>
+    <t xml:space="preserve">628128338943</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338844</t>
+    <t xml:space="preserve">628128338944</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338855</t>
+    <t xml:space="preserve">628128338955</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338856</t>
+    <t xml:space="preserve">628128338956</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338857</t>
+    <t xml:space="preserve">628128338957</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338858</t>
+    <t xml:space="preserve">628128338958</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338859</t>
+    <t xml:space="preserve">628128338959</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338850</t>
+    <t xml:space="preserve">628128338950</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338851</t>
+    <t xml:space="preserve">628128338951</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338852</t>
+    <t xml:space="preserve">628128338952</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338853</t>
+    <t xml:space="preserve">628128338953</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338854</t>
+    <t xml:space="preserve">628128338954</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338865</t>
+    <t xml:space="preserve">628128338965</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338866</t>
+    <t xml:space="preserve">628128338966</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338867</t>
+    <t xml:space="preserve">628128338967</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338868</t>
+    <t xml:space="preserve">628128338968</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338869</t>
+    <t xml:space="preserve">628128338969</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338860</t>
+    <t xml:space="preserve">628128338960</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338861</t>
+    <t xml:space="preserve">628128338961</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338862</t>
+    <t xml:space="preserve">628128338962</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338863</t>
+    <t xml:space="preserve">628128338963</t>
   </si>
   <si>
-    <t xml:space="preserve">08128338864</t>
+    <t xml:space="preserve">628128338964</t>
   </si>
   <si>
     <t xml:space="preserve">08128338875</t>
@@ -435,22 +435,82 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF00A933"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFFFFFF"/>
+    <tabColor rgb="FF00A933"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A86" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:F100"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="G1:G100 F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -2129,10 +2189,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="F1:F100 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1:G100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -3805,16 +3865,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFFFFFF"/>
+    <tabColor rgb="FF00A933"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A87" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:F100"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="G1:G100 F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -5487,16 +5547,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFFFFFF"/>
+    <tabColor rgb="FF00A933"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A87" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:F100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1:G100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -7181,16 +7241,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A87" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F100" activeCellId="0" sqref="F1:F100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H21" activeCellId="1" sqref="G1:G100 H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -7216,11 +7276,11 @@
       </c>
       <c r="F1" s="0" t="str">
         <f aca="false">$D$1&amp;E1</f>
-        <v>081283388451</v>
+        <v>6281283389451</v>
       </c>
       <c r="G1" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A1</f>
-        <v>AA4_1</v>
+        <f aca="false">IF(LEN(A1) &lt; 2,"AA4_0"&amp;A1,"AA4_"&amp;A1)</f>
+        <v>AA4_01</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7232,11 +7292,11 @@
       </c>
       <c r="F2" s="0" t="str">
         <f aca="false">$D$1&amp;E2</f>
-        <v>081283388452</v>
+        <v>6281283389452</v>
       </c>
       <c r="G2" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A2</f>
-        <v>AA4_2</v>
+        <f aca="false">IF(LEN(A2) &lt; 2,"AA4_0"&amp;A2,"AA4_"&amp;A2)</f>
+        <v>AA4_02</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7248,11 +7308,11 @@
       </c>
       <c r="F3" s="0" t="str">
         <f aca="false">$D$1&amp;E3</f>
-        <v>081283388453</v>
+        <v>6281283389453</v>
       </c>
       <c r="G3" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A3</f>
-        <v>AA4_3</v>
+        <f aca="false">IF(LEN(A3) &lt; 2,"AA4_0"&amp;A3,"AA4_"&amp;A3)</f>
+        <v>AA4_03</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7264,11 +7324,11 @@
       </c>
       <c r="F4" s="0" t="str">
         <f aca="false">$D$1&amp;E4</f>
-        <v>081283388454</v>
+        <v>6281283389454</v>
       </c>
       <c r="G4" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A4</f>
-        <v>AA4_4</v>
+        <f aca="false">IF(LEN(A4) &lt; 2,"AA4_0"&amp;A4,"AA4_"&amp;A4)</f>
+        <v>AA4_04</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7280,11 +7340,11 @@
       </c>
       <c r="F5" s="0" t="str">
         <f aca="false">$D$1&amp;E5</f>
-        <v>081283388455</v>
+        <v>6281283389455</v>
       </c>
       <c r="G5" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A5</f>
-        <v>AA4_5</v>
+        <f aca="false">IF(LEN(A5) &lt; 2,"AA4_0"&amp;A5,"AA4_"&amp;A5)</f>
+        <v>AA4_05</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7296,11 +7356,11 @@
       </c>
       <c r="F6" s="0" t="str">
         <f aca="false">$D$1&amp;E6</f>
-        <v>081283388456</v>
+        <v>6281283389456</v>
       </c>
       <c r="G6" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A6</f>
-        <v>AA4_6</v>
+        <f aca="false">IF(LEN(A6) &lt; 2,"AA4_0"&amp;A6,"AA4_"&amp;A6)</f>
+        <v>AA4_06</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7312,11 +7372,11 @@
       </c>
       <c r="F7" s="0" t="str">
         <f aca="false">$D$1&amp;E7</f>
-        <v>081283388457</v>
+        <v>6281283389457</v>
       </c>
       <c r="G7" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A7</f>
-        <v>AA4_7</v>
+        <f aca="false">IF(LEN(A7) &lt; 2,"AA4_0"&amp;A7,"AA4_"&amp;A7)</f>
+        <v>AA4_07</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7328,11 +7388,11 @@
       </c>
       <c r="F8" s="0" t="str">
         <f aca="false">$D$1&amp;E8</f>
-        <v>081283388458</v>
+        <v>6281283389458</v>
       </c>
       <c r="G8" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A8</f>
-        <v>AA4_8</v>
+        <f aca="false">IF(LEN(A8) &lt; 2,"AA4_0"&amp;A8,"AA4_"&amp;A8)</f>
+        <v>AA4_08</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7344,11 +7404,11 @@
       </c>
       <c r="F9" s="0" t="str">
         <f aca="false">$D$1&amp;E9</f>
-        <v>081283388459</v>
+        <v>6281283389459</v>
       </c>
       <c r="G9" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A9</f>
-        <v>AA4_9</v>
+        <f aca="false">IF(LEN(A9) &lt; 2,"AA4_0"&amp;A9,"AA4_"&amp;A9)</f>
+        <v>AA4_09</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7360,10 +7420,10 @@
       </c>
       <c r="F10" s="0" t="str">
         <f aca="false">$D$1&amp;E10</f>
-        <v>081283388450</v>
+        <v>6281283389450</v>
       </c>
       <c r="G10" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A10</f>
+        <f aca="false">IF(LEN(A10) &lt; 2,"AA4_0"&amp;A10,"AA4_"&amp;A10)</f>
         <v>AA4_10</v>
       </c>
     </row>
@@ -7382,10 +7442,10 @@
       </c>
       <c r="F11" s="0" t="str">
         <f aca="false">$D$11&amp;E11</f>
-        <v>081283388461</v>
+        <v>6281283389461</v>
       </c>
       <c r="G11" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A11</f>
+        <f aca="false">IF(LEN(A11) &lt; 2,"AA4_0"&amp;A11,"AA4_"&amp;A11)</f>
         <v>AA4_11</v>
       </c>
     </row>
@@ -7398,10 +7458,10 @@
       </c>
       <c r="F12" s="0" t="str">
         <f aca="false">$D$11&amp;E12</f>
-        <v>081283388462</v>
+        <v>6281283389462</v>
       </c>
       <c r="G12" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A12</f>
+        <f aca="false">IF(LEN(A12) &lt; 2,"AA4_0"&amp;A12,"AA4_"&amp;A12)</f>
         <v>AA4_12</v>
       </c>
     </row>
@@ -7414,10 +7474,10 @@
       </c>
       <c r="F13" s="0" t="str">
         <f aca="false">$D$11&amp;E13</f>
-        <v>081283388463</v>
+        <v>6281283389463</v>
       </c>
       <c r="G13" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A13</f>
+        <f aca="false">IF(LEN(A13) &lt; 2,"AA4_0"&amp;A13,"AA4_"&amp;A13)</f>
         <v>AA4_13</v>
       </c>
     </row>
@@ -7430,10 +7490,10 @@
       </c>
       <c r="F14" s="0" t="str">
         <f aca="false">$D$11&amp;E14</f>
-        <v>081283388464</v>
+        <v>6281283389464</v>
       </c>
       <c r="G14" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A14</f>
+        <f aca="false">IF(LEN(A14) &lt; 2,"AA4_0"&amp;A14,"AA4_"&amp;A14)</f>
         <v>AA4_14</v>
       </c>
     </row>
@@ -7446,10 +7506,10 @@
       </c>
       <c r="F15" s="0" t="str">
         <f aca="false">$D$11&amp;E15</f>
-        <v>081283388465</v>
+        <v>6281283389465</v>
       </c>
       <c r="G15" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A15</f>
+        <f aca="false">IF(LEN(A15) &lt; 2,"AA4_0"&amp;A15,"AA4_"&amp;A15)</f>
         <v>AA4_15</v>
       </c>
     </row>
@@ -7462,10 +7522,10 @@
       </c>
       <c r="F16" s="0" t="str">
         <f aca="false">$D$11&amp;E16</f>
-        <v>081283388466</v>
+        <v>6281283389466</v>
       </c>
       <c r="G16" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A16</f>
+        <f aca="false">IF(LEN(A16) &lt; 2,"AA4_0"&amp;A16,"AA4_"&amp;A16)</f>
         <v>AA4_16</v>
       </c>
     </row>
@@ -7478,10 +7538,10 @@
       </c>
       <c r="F17" s="0" t="str">
         <f aca="false">$D$11&amp;E17</f>
-        <v>081283388467</v>
+        <v>6281283389467</v>
       </c>
       <c r="G17" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A17</f>
+        <f aca="false">IF(LEN(A17) &lt; 2,"AA4_0"&amp;A17,"AA4_"&amp;A17)</f>
         <v>AA4_17</v>
       </c>
     </row>
@@ -7494,10 +7554,10 @@
       </c>
       <c r="F18" s="0" t="str">
         <f aca="false">$D$11&amp;E18</f>
-        <v>081283388468</v>
+        <v>6281283389468</v>
       </c>
       <c r="G18" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A18</f>
+        <f aca="false">IF(LEN(A18) &lt; 2,"AA4_0"&amp;A18,"AA4_"&amp;A18)</f>
         <v>AA4_18</v>
       </c>
     </row>
@@ -7510,10 +7570,10 @@
       </c>
       <c r="F19" s="0" t="str">
         <f aca="false">$D$11&amp;E19</f>
-        <v>081283388469</v>
+        <v>6281283389469</v>
       </c>
       <c r="G19" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A19</f>
+        <f aca="false">IF(LEN(A19) &lt; 2,"AA4_0"&amp;A19,"AA4_"&amp;A19)</f>
         <v>AA4_19</v>
       </c>
     </row>
@@ -7526,10 +7586,10 @@
       </c>
       <c r="F20" s="0" t="str">
         <f aca="false">$D$11&amp;E20</f>
-        <v>081283388460</v>
+        <v>6281283389460</v>
       </c>
       <c r="G20" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A20</f>
+        <f aca="false">IF(LEN(A20) &lt; 2,"AA4_0"&amp;A20,"AA4_"&amp;A20)</f>
         <v>AA4_20</v>
       </c>
     </row>
@@ -7548,10 +7608,10 @@
       </c>
       <c r="F21" s="0" t="str">
         <f aca="false">$D$21&amp;E21</f>
-        <v>081283388471</v>
+        <v>6281283389471</v>
       </c>
       <c r="G21" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A21</f>
+        <f aca="false">IF(LEN(A21) &lt; 2,"AA4_0"&amp;A21,"AA4_"&amp;A21)</f>
         <v>AA4_21</v>
       </c>
     </row>
@@ -7564,10 +7624,10 @@
       </c>
       <c r="F22" s="0" t="str">
         <f aca="false">$D$21&amp;E22</f>
-        <v>081283388472</v>
+        <v>6281283389472</v>
       </c>
       <c r="G22" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A22</f>
+        <f aca="false">IF(LEN(A22) &lt; 2,"AA4_0"&amp;A22,"AA4_"&amp;A22)</f>
         <v>AA4_22</v>
       </c>
     </row>
@@ -7580,10 +7640,10 @@
       </c>
       <c r="F23" s="0" t="str">
         <f aca="false">$D$21&amp;E23</f>
-        <v>081283388473</v>
+        <v>6281283389473</v>
       </c>
       <c r="G23" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A23</f>
+        <f aca="false">IF(LEN(A23) &lt; 2,"AA4_0"&amp;A23,"AA4_"&amp;A23)</f>
         <v>AA4_23</v>
       </c>
     </row>
@@ -7596,10 +7656,10 @@
       </c>
       <c r="F24" s="0" t="str">
         <f aca="false">$D$21&amp;E24</f>
-        <v>081283388474</v>
+        <v>6281283389474</v>
       </c>
       <c r="G24" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A24</f>
+        <f aca="false">IF(LEN(A24) &lt; 2,"AA4_0"&amp;A24,"AA4_"&amp;A24)</f>
         <v>AA4_24</v>
       </c>
     </row>
@@ -7612,10 +7672,10 @@
       </c>
       <c r="F25" s="0" t="str">
         <f aca="false">$D$21&amp;E25</f>
-        <v>081283388475</v>
+        <v>6281283389475</v>
       </c>
       <c r="G25" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A25</f>
+        <f aca="false">IF(LEN(A25) &lt; 2,"AA4_0"&amp;A25,"AA4_"&amp;A25)</f>
         <v>AA4_25</v>
       </c>
     </row>
@@ -7628,10 +7688,10 @@
       </c>
       <c r="F26" s="0" t="str">
         <f aca="false">$D$21&amp;E26</f>
-        <v>081283388476</v>
+        <v>6281283389476</v>
       </c>
       <c r="G26" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A26</f>
+        <f aca="false">IF(LEN(A26) &lt; 2,"AA4_0"&amp;A26,"AA4_"&amp;A26)</f>
         <v>AA4_26</v>
       </c>
     </row>
@@ -7644,10 +7704,10 @@
       </c>
       <c r="F27" s="0" t="str">
         <f aca="false">$D$21&amp;E27</f>
-        <v>081283388477</v>
+        <v>6281283389477</v>
       </c>
       <c r="G27" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A27</f>
+        <f aca="false">IF(LEN(A27) &lt; 2,"AA4_0"&amp;A27,"AA4_"&amp;A27)</f>
         <v>AA4_27</v>
       </c>
     </row>
@@ -7660,10 +7720,10 @@
       </c>
       <c r="F28" s="0" t="str">
         <f aca="false">$D$21&amp;E28</f>
-        <v>081283388478</v>
+        <v>6281283389478</v>
       </c>
       <c r="G28" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A28</f>
+        <f aca="false">IF(LEN(A28) &lt; 2,"AA4_0"&amp;A28,"AA4_"&amp;A28)</f>
         <v>AA4_28</v>
       </c>
     </row>
@@ -7676,10 +7736,10 @@
       </c>
       <c r="F29" s="0" t="str">
         <f aca="false">$D$21&amp;E29</f>
-        <v>081283388479</v>
+        <v>6281283389479</v>
       </c>
       <c r="G29" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A29</f>
+        <f aca="false">IF(LEN(A29) &lt; 2,"AA4_0"&amp;A29,"AA4_"&amp;A29)</f>
         <v>AA4_29</v>
       </c>
     </row>
@@ -7692,10 +7752,10 @@
       </c>
       <c r="F30" s="0" t="str">
         <f aca="false">$D$21&amp;E30</f>
-        <v>081283388470</v>
+        <v>6281283389470</v>
       </c>
       <c r="G30" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A30</f>
+        <f aca="false">IF(LEN(A30) &lt; 2,"AA4_0"&amp;A30,"AA4_"&amp;A30)</f>
         <v>AA4_30</v>
       </c>
     </row>
@@ -7714,10 +7774,10 @@
       </c>
       <c r="F31" s="0" t="str">
         <f aca="false">$D$31&amp;E31</f>
-        <v>081283388481</v>
+        <v>6281283389481</v>
       </c>
       <c r="G31" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A31</f>
+        <f aca="false">IF(LEN(A31) &lt; 2,"AA4_0"&amp;A31,"AA4_"&amp;A31)</f>
         <v>AA4_31</v>
       </c>
     </row>
@@ -7730,10 +7790,10 @@
       </c>
       <c r="F32" s="0" t="str">
         <f aca="false">$D$31&amp;E32</f>
-        <v>081283388482</v>
+        <v>6281283389482</v>
       </c>
       <c r="G32" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A32</f>
+        <f aca="false">IF(LEN(A32) &lt; 2,"AA4_0"&amp;A32,"AA4_"&amp;A32)</f>
         <v>AA4_32</v>
       </c>
     </row>
@@ -7746,10 +7806,10 @@
       </c>
       <c r="F33" s="0" t="str">
         <f aca="false">$D$31&amp;E33</f>
-        <v>081283388483</v>
+        <v>6281283389483</v>
       </c>
       <c r="G33" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A33</f>
+        <f aca="false">IF(LEN(A33) &lt; 2,"AA4_0"&amp;A33,"AA4_"&amp;A33)</f>
         <v>AA4_33</v>
       </c>
     </row>
@@ -7762,10 +7822,10 @@
       </c>
       <c r="F34" s="0" t="str">
         <f aca="false">$D$31&amp;E34</f>
-        <v>081283388484</v>
+        <v>6281283389484</v>
       </c>
       <c r="G34" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A34</f>
+        <f aca="false">IF(LEN(A34) &lt; 2,"AA4_0"&amp;A34,"AA4_"&amp;A34)</f>
         <v>AA4_34</v>
       </c>
     </row>
@@ -7778,10 +7838,10 @@
       </c>
       <c r="F35" s="0" t="str">
         <f aca="false">$D$31&amp;E35</f>
-        <v>081283388485</v>
+        <v>6281283389485</v>
       </c>
       <c r="G35" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A35</f>
+        <f aca="false">IF(LEN(A35) &lt; 2,"AA4_0"&amp;A35,"AA4_"&amp;A35)</f>
         <v>AA4_35</v>
       </c>
     </row>
@@ -7794,10 +7854,10 @@
       </c>
       <c r="F36" s="0" t="str">
         <f aca="false">$D$31&amp;E36</f>
-        <v>081283388486</v>
+        <v>6281283389486</v>
       </c>
       <c r="G36" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A36</f>
+        <f aca="false">IF(LEN(A36) &lt; 2,"AA4_0"&amp;A36,"AA4_"&amp;A36)</f>
         <v>AA4_36</v>
       </c>
     </row>
@@ -7810,10 +7870,10 @@
       </c>
       <c r="F37" s="0" t="str">
         <f aca="false">$D$31&amp;E37</f>
-        <v>081283388487</v>
+        <v>6281283389487</v>
       </c>
       <c r="G37" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A37</f>
+        <f aca="false">IF(LEN(A37) &lt; 2,"AA4_0"&amp;A37,"AA4_"&amp;A37)</f>
         <v>AA4_37</v>
       </c>
     </row>
@@ -7826,10 +7886,10 @@
       </c>
       <c r="F38" s="0" t="str">
         <f aca="false">$D$31&amp;E38</f>
-        <v>081283388488</v>
+        <v>6281283389488</v>
       </c>
       <c r="G38" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A38</f>
+        <f aca="false">IF(LEN(A38) &lt; 2,"AA4_0"&amp;A38,"AA4_"&amp;A38)</f>
         <v>AA4_38</v>
       </c>
     </row>
@@ -7842,10 +7902,10 @@
       </c>
       <c r="F39" s="0" t="str">
         <f aca="false">$D$31&amp;E39</f>
-        <v>081283388489</v>
+        <v>6281283389489</v>
       </c>
       <c r="G39" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A39</f>
+        <f aca="false">IF(LEN(A39) &lt; 2,"AA4_0"&amp;A39,"AA4_"&amp;A39)</f>
         <v>AA4_39</v>
       </c>
     </row>
@@ -7858,10 +7918,10 @@
       </c>
       <c r="F40" s="0" t="str">
         <f aca="false">$D$31&amp;E40</f>
-        <v>081283388480</v>
+        <v>6281283389480</v>
       </c>
       <c r="G40" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A40</f>
+        <f aca="false">IF(LEN(A40) &lt; 2,"AA4_0"&amp;A40,"AA4_"&amp;A40)</f>
         <v>AA4_40</v>
       </c>
     </row>
@@ -7880,10 +7940,10 @@
       </c>
       <c r="F41" s="0" t="str">
         <f aca="false">$D$41&amp;E41</f>
-        <v>081283388491</v>
+        <v>6281283389491</v>
       </c>
       <c r="G41" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A41</f>
+        <f aca="false">IF(LEN(A41) &lt; 2,"AA4_0"&amp;A41,"AA4_"&amp;A41)</f>
         <v>AA4_41</v>
       </c>
     </row>
@@ -7896,10 +7956,10 @@
       </c>
       <c r="F42" s="0" t="str">
         <f aca="false">$D$41&amp;E42</f>
-        <v>081283388492</v>
+        <v>6281283389492</v>
       </c>
       <c r="G42" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A42</f>
+        <f aca="false">IF(LEN(A42) &lt; 2,"AA4_0"&amp;A42,"AA4_"&amp;A42)</f>
         <v>AA4_42</v>
       </c>
     </row>
@@ -7912,10 +7972,10 @@
       </c>
       <c r="F43" s="0" t="str">
         <f aca="false">$D$41&amp;E43</f>
-        <v>081283388493</v>
+        <v>6281283389493</v>
       </c>
       <c r="G43" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A43</f>
+        <f aca="false">IF(LEN(A43) &lt; 2,"AA4_0"&amp;A43,"AA4_"&amp;A43)</f>
         <v>AA4_43</v>
       </c>
     </row>
@@ -7928,10 +7988,10 @@
       </c>
       <c r="F44" s="0" t="str">
         <f aca="false">$D$41&amp;E44</f>
-        <v>081283388494</v>
+        <v>6281283389494</v>
       </c>
       <c r="G44" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A44</f>
+        <f aca="false">IF(LEN(A44) &lt; 2,"AA4_0"&amp;A44,"AA4_"&amp;A44)</f>
         <v>AA4_44</v>
       </c>
     </row>
@@ -7944,10 +8004,10 @@
       </c>
       <c r="F45" s="0" t="str">
         <f aca="false">$D$41&amp;E45</f>
-        <v>081283388495</v>
+        <v>6281283389495</v>
       </c>
       <c r="G45" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A45</f>
+        <f aca="false">IF(LEN(A45) &lt; 2,"AA4_0"&amp;A45,"AA4_"&amp;A45)</f>
         <v>AA4_45</v>
       </c>
     </row>
@@ -7960,10 +8020,10 @@
       </c>
       <c r="F46" s="0" t="str">
         <f aca="false">$D$41&amp;E46</f>
-        <v>081283388496</v>
+        <v>6281283389496</v>
       </c>
       <c r="G46" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A46</f>
+        <f aca="false">IF(LEN(A46) &lt; 2,"AA4_0"&amp;A46,"AA4_"&amp;A46)</f>
         <v>AA4_46</v>
       </c>
     </row>
@@ -7976,10 +8036,10 @@
       </c>
       <c r="F47" s="0" t="str">
         <f aca="false">$D$41&amp;E47</f>
-        <v>081283388497</v>
+        <v>6281283389497</v>
       </c>
       <c r="G47" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A47</f>
+        <f aca="false">IF(LEN(A47) &lt; 2,"AA4_0"&amp;A47,"AA4_"&amp;A47)</f>
         <v>AA4_47</v>
       </c>
     </row>
@@ -7992,10 +8052,10 @@
       </c>
       <c r="F48" s="0" t="str">
         <f aca="false">$D$41&amp;E48</f>
-        <v>081283388498</v>
+        <v>6281283389498</v>
       </c>
       <c r="G48" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A48</f>
+        <f aca="false">IF(LEN(A48) &lt; 2,"AA4_0"&amp;A48,"AA4_"&amp;A48)</f>
         <v>AA4_48</v>
       </c>
     </row>
@@ -8008,10 +8068,10 @@
       </c>
       <c r="F49" s="0" t="str">
         <f aca="false">$D$41&amp;E49</f>
-        <v>081283388499</v>
+        <v>6281283389499</v>
       </c>
       <c r="G49" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A49</f>
+        <f aca="false">IF(LEN(A49) &lt; 2,"AA4_0"&amp;A49,"AA4_"&amp;A49)</f>
         <v>AA4_49</v>
       </c>
     </row>
@@ -8024,10 +8084,10 @@
       </c>
       <c r="F50" s="0" t="str">
         <f aca="false">$D$41&amp;E50</f>
-        <v>081283388490</v>
+        <v>6281283389490</v>
       </c>
       <c r="G50" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A50</f>
+        <f aca="false">IF(LEN(A50) &lt; 2,"AA4_0"&amp;A50,"AA4_"&amp;A50)</f>
         <v>AA4_50</v>
       </c>
     </row>
@@ -8046,10 +8106,10 @@
       </c>
       <c r="F51" s="0" t="str">
         <f aca="false">$D$51&amp;E51</f>
-        <v>081283388401</v>
+        <v>6281283389401</v>
       </c>
       <c r="G51" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A51</f>
+        <f aca="false">IF(LEN(A51) &lt; 2,"AA4_0"&amp;A51,"AA4_"&amp;A51)</f>
         <v>AA4_51</v>
       </c>
     </row>
@@ -8062,10 +8122,10 @@
       </c>
       <c r="F52" s="0" t="str">
         <f aca="false">$D$51&amp;E52</f>
-        <v>081283388402</v>
+        <v>6281283389402</v>
       </c>
       <c r="G52" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A52</f>
+        <f aca="false">IF(LEN(A52) &lt; 2,"AA4_0"&amp;A52,"AA4_"&amp;A52)</f>
         <v>AA4_52</v>
       </c>
     </row>
@@ -8078,10 +8138,10 @@
       </c>
       <c r="F53" s="0" t="str">
         <f aca="false">$D$51&amp;E53</f>
-        <v>081283388403</v>
+        <v>6281283389403</v>
       </c>
       <c r="G53" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A53</f>
+        <f aca="false">IF(LEN(A53) &lt; 2,"AA4_0"&amp;A53,"AA4_"&amp;A53)</f>
         <v>AA4_53</v>
       </c>
     </row>
@@ -8094,10 +8154,10 @@
       </c>
       <c r="F54" s="0" t="str">
         <f aca="false">$D$51&amp;E54</f>
-        <v>081283388404</v>
+        <v>6281283389404</v>
       </c>
       <c r="G54" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A54</f>
+        <f aca="false">IF(LEN(A54) &lt; 2,"AA4_0"&amp;A54,"AA4_"&amp;A54)</f>
         <v>AA4_54</v>
       </c>
     </row>
@@ -8110,10 +8170,10 @@
       </c>
       <c r="F55" s="0" t="str">
         <f aca="false">$D$51&amp;E55</f>
-        <v>081283388405</v>
+        <v>6281283389405</v>
       </c>
       <c r="G55" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A55</f>
+        <f aca="false">IF(LEN(A55) &lt; 2,"AA4_0"&amp;A55,"AA4_"&amp;A55)</f>
         <v>AA4_55</v>
       </c>
     </row>
@@ -8126,10 +8186,10 @@
       </c>
       <c r="F56" s="0" t="str">
         <f aca="false">$D$51&amp;E56</f>
-        <v>081283388406</v>
+        <v>6281283389406</v>
       </c>
       <c r="G56" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A56</f>
+        <f aca="false">IF(LEN(A56) &lt; 2,"AA4_0"&amp;A56,"AA4_"&amp;A56)</f>
         <v>AA4_56</v>
       </c>
     </row>
@@ -8142,10 +8202,10 @@
       </c>
       <c r="F57" s="0" t="str">
         <f aca="false">$D$51&amp;E57</f>
-        <v>081283388407</v>
+        <v>6281283389407</v>
       </c>
       <c r="G57" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A57</f>
+        <f aca="false">IF(LEN(A57) &lt; 2,"AA4_0"&amp;A57,"AA4_"&amp;A57)</f>
         <v>AA4_57</v>
       </c>
     </row>
@@ -8158,10 +8218,10 @@
       </c>
       <c r="F58" s="0" t="str">
         <f aca="false">$D$51&amp;E58</f>
-        <v>081283388408</v>
+        <v>6281283389408</v>
       </c>
       <c r="G58" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A58</f>
+        <f aca="false">IF(LEN(A58) &lt; 2,"AA4_0"&amp;A58,"AA4_"&amp;A58)</f>
         <v>AA4_58</v>
       </c>
     </row>
@@ -8174,10 +8234,10 @@
       </c>
       <c r="F59" s="0" t="str">
         <f aca="false">$D$51&amp;E59</f>
-        <v>081283388409</v>
+        <v>6281283389409</v>
       </c>
       <c r="G59" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A59</f>
+        <f aca="false">IF(LEN(A59) &lt; 2,"AA4_0"&amp;A59,"AA4_"&amp;A59)</f>
         <v>AA4_59</v>
       </c>
     </row>
@@ -8190,10 +8250,10 @@
       </c>
       <c r="F60" s="0" t="str">
         <f aca="false">$D$51&amp;E60</f>
-        <v>081283388400</v>
+        <v>6281283389400</v>
       </c>
       <c r="G60" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A60</f>
+        <f aca="false">IF(LEN(A60) &lt; 2,"AA4_0"&amp;A60,"AA4_"&amp;A60)</f>
         <v>AA4_60</v>
       </c>
     </row>
@@ -8212,10 +8272,10 @@
       </c>
       <c r="F61" s="0" t="str">
         <f aca="false">$D$61&amp;E61</f>
-        <v>081283388411</v>
+        <v>6281283389411</v>
       </c>
       <c r="G61" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A61</f>
+        <f aca="false">IF(LEN(A61) &lt; 2,"AA4_0"&amp;A61,"AA4_"&amp;A61)</f>
         <v>AA4_61</v>
       </c>
     </row>
@@ -8228,10 +8288,10 @@
       </c>
       <c r="F62" s="0" t="str">
         <f aca="false">$D$61&amp;E62</f>
-        <v>081283388412</v>
+        <v>6281283389412</v>
       </c>
       <c r="G62" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A62</f>
+        <f aca="false">IF(LEN(A62) &lt; 2,"AA4_0"&amp;A62,"AA4_"&amp;A62)</f>
         <v>AA4_62</v>
       </c>
     </row>
@@ -8244,10 +8304,10 @@
       </c>
       <c r="F63" s="0" t="str">
         <f aca="false">$D$61&amp;E63</f>
-        <v>081283388413</v>
+        <v>6281283389413</v>
       </c>
       <c r="G63" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A63</f>
+        <f aca="false">IF(LEN(A63) &lt; 2,"AA4_0"&amp;A63,"AA4_"&amp;A63)</f>
         <v>AA4_63</v>
       </c>
     </row>
@@ -8260,10 +8320,10 @@
       </c>
       <c r="F64" s="0" t="str">
         <f aca="false">$D$61&amp;E64</f>
-        <v>081283388414</v>
+        <v>6281283389414</v>
       </c>
       <c r="G64" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A64</f>
+        <f aca="false">IF(LEN(A64) &lt; 2,"AA4_0"&amp;A64,"AA4_"&amp;A64)</f>
         <v>AA4_64</v>
       </c>
     </row>
@@ -8276,10 +8336,10 @@
       </c>
       <c r="F65" s="0" t="str">
         <f aca="false">$D$61&amp;E65</f>
-        <v>081283388415</v>
+        <v>6281283389415</v>
       </c>
       <c r="G65" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A65</f>
+        <f aca="false">IF(LEN(A65) &lt; 2,"AA4_0"&amp;A65,"AA4_"&amp;A65)</f>
         <v>AA4_65</v>
       </c>
     </row>
@@ -8292,10 +8352,10 @@
       </c>
       <c r="F66" s="0" t="str">
         <f aca="false">$D$61&amp;E66</f>
-        <v>081283388416</v>
+        <v>6281283389416</v>
       </c>
       <c r="G66" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A66</f>
+        <f aca="false">IF(LEN(A66) &lt; 2,"AA4_0"&amp;A66,"AA4_"&amp;A66)</f>
         <v>AA4_66</v>
       </c>
     </row>
@@ -8308,10 +8368,10 @@
       </c>
       <c r="F67" s="0" t="str">
         <f aca="false">$D$61&amp;E67</f>
-        <v>081283388417</v>
+        <v>6281283389417</v>
       </c>
       <c r="G67" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A67</f>
+        <f aca="false">IF(LEN(A67) &lt; 2,"AA4_0"&amp;A67,"AA4_"&amp;A67)</f>
         <v>AA4_67</v>
       </c>
     </row>
@@ -8324,10 +8384,10 @@
       </c>
       <c r="F68" s="0" t="str">
         <f aca="false">$D$61&amp;E68</f>
-        <v>081283388418</v>
+        <v>6281283389418</v>
       </c>
       <c r="G68" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A68</f>
+        <f aca="false">IF(LEN(A68) &lt; 2,"AA4_0"&amp;A68,"AA4_"&amp;A68)</f>
         <v>AA4_68</v>
       </c>
     </row>
@@ -8340,10 +8400,10 @@
       </c>
       <c r="F69" s="0" t="str">
         <f aca="false">$D$61&amp;E69</f>
-        <v>081283388419</v>
+        <v>6281283389419</v>
       </c>
       <c r="G69" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A69</f>
+        <f aca="false">IF(LEN(A69) &lt; 2,"AA4_0"&amp;A69,"AA4_"&amp;A69)</f>
         <v>AA4_69</v>
       </c>
     </row>
@@ -8356,10 +8416,10 @@
       </c>
       <c r="F70" s="0" t="str">
         <f aca="false">$D$61&amp;E70</f>
-        <v>081283388410</v>
+        <v>6281283389410</v>
       </c>
       <c r="G70" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A70</f>
+        <f aca="false">IF(LEN(A70) &lt; 2,"AA4_0"&amp;A70,"AA4_"&amp;A70)</f>
         <v>AA4_70</v>
       </c>
     </row>
@@ -8378,10 +8438,10 @@
       </c>
       <c r="F71" s="0" t="str">
         <f aca="false">$D$71&amp;E71</f>
-        <v>081283388421</v>
+        <v>6281283389421</v>
       </c>
       <c r="G71" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A71</f>
+        <f aca="false">IF(LEN(A71) &lt; 2,"AA4_0"&amp;A71,"AA4_"&amp;A71)</f>
         <v>AA4_71</v>
       </c>
     </row>
@@ -8394,10 +8454,10 @@
       </c>
       <c r="F72" s="0" t="str">
         <f aca="false">$D$71&amp;E72</f>
-        <v>081283388422</v>
+        <v>6281283389422</v>
       </c>
       <c r="G72" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A72</f>
+        <f aca="false">IF(LEN(A72) &lt; 2,"AA4_0"&amp;A72,"AA4_"&amp;A72)</f>
         <v>AA4_72</v>
       </c>
     </row>
@@ -8410,10 +8470,10 @@
       </c>
       <c r="F73" s="0" t="str">
         <f aca="false">$D$71&amp;E73</f>
-        <v>081283388423</v>
+        <v>6281283389423</v>
       </c>
       <c r="G73" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A73</f>
+        <f aca="false">IF(LEN(A73) &lt; 2,"AA4_0"&amp;A73,"AA4_"&amp;A73)</f>
         <v>AA4_73</v>
       </c>
     </row>
@@ -8426,10 +8486,10 @@
       </c>
       <c r="F74" s="0" t="str">
         <f aca="false">$D$71&amp;E74</f>
-        <v>081283388424</v>
+        <v>6281283389424</v>
       </c>
       <c r="G74" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A74</f>
+        <f aca="false">IF(LEN(A74) &lt; 2,"AA4_0"&amp;A74,"AA4_"&amp;A74)</f>
         <v>AA4_74</v>
       </c>
     </row>
@@ -8442,10 +8502,10 @@
       </c>
       <c r="F75" s="0" t="str">
         <f aca="false">$D$71&amp;E75</f>
-        <v>081283388425</v>
+        <v>6281283389425</v>
       </c>
       <c r="G75" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A75</f>
+        <f aca="false">IF(LEN(A75) &lt; 2,"AA4_0"&amp;A75,"AA4_"&amp;A75)</f>
         <v>AA4_75</v>
       </c>
     </row>
@@ -8458,10 +8518,10 @@
       </c>
       <c r="F76" s="0" t="str">
         <f aca="false">$D$71&amp;E76</f>
-        <v>081283388426</v>
+        <v>6281283389426</v>
       </c>
       <c r="G76" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A76</f>
+        <f aca="false">IF(LEN(A76) &lt; 2,"AA4_0"&amp;A76,"AA4_"&amp;A76)</f>
         <v>AA4_76</v>
       </c>
     </row>
@@ -8474,10 +8534,10 @@
       </c>
       <c r="F77" s="0" t="str">
         <f aca="false">$D$71&amp;E77</f>
-        <v>081283388427</v>
+        <v>6281283389427</v>
       </c>
       <c r="G77" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A77</f>
+        <f aca="false">IF(LEN(A77) &lt; 2,"AA4_0"&amp;A77,"AA4_"&amp;A77)</f>
         <v>AA4_77</v>
       </c>
     </row>
@@ -8490,10 +8550,10 @@
       </c>
       <c r="F78" s="0" t="str">
         <f aca="false">$D$71&amp;E78</f>
-        <v>081283388428</v>
+        <v>6281283389428</v>
       </c>
       <c r="G78" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A78</f>
+        <f aca="false">IF(LEN(A78) &lt; 2,"AA4_0"&amp;A78,"AA4_"&amp;A78)</f>
         <v>AA4_78</v>
       </c>
     </row>
@@ -8506,10 +8566,10 @@
       </c>
       <c r="F79" s="0" t="str">
         <f aca="false">$D$71&amp;E79</f>
-        <v>081283388429</v>
+        <v>6281283389429</v>
       </c>
       <c r="G79" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A79</f>
+        <f aca="false">IF(LEN(A79) &lt; 2,"AA4_0"&amp;A79,"AA4_"&amp;A79)</f>
         <v>AA4_79</v>
       </c>
     </row>
@@ -8522,10 +8582,10 @@
       </c>
       <c r="F80" s="0" t="str">
         <f aca="false">$D$71&amp;E80</f>
-        <v>081283388420</v>
+        <v>6281283389420</v>
       </c>
       <c r="G80" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A80</f>
+        <f aca="false">IF(LEN(A80) &lt; 2,"AA4_0"&amp;A80,"AA4_"&amp;A80)</f>
         <v>AA4_80</v>
       </c>
     </row>
@@ -8544,10 +8604,10 @@
       </c>
       <c r="F81" s="0" t="str">
         <f aca="false">$D$81&amp;E81</f>
-        <v>081283388431</v>
+        <v>6281283389431</v>
       </c>
       <c r="G81" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A81</f>
+        <f aca="false">IF(LEN(A81) &lt; 2,"AA4_0"&amp;A81,"AA4_"&amp;A81)</f>
         <v>AA4_81</v>
       </c>
     </row>
@@ -8560,10 +8620,10 @@
       </c>
       <c r="F82" s="0" t="str">
         <f aca="false">$D$81&amp;E82</f>
-        <v>081283388432</v>
+        <v>6281283389432</v>
       </c>
       <c r="G82" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A82</f>
+        <f aca="false">IF(LEN(A82) &lt; 2,"AA4_0"&amp;A82,"AA4_"&amp;A82)</f>
         <v>AA4_82</v>
       </c>
     </row>
@@ -8576,10 +8636,10 @@
       </c>
       <c r="F83" s="0" t="str">
         <f aca="false">$D$81&amp;E83</f>
-        <v>081283388433</v>
+        <v>6281283389433</v>
       </c>
       <c r="G83" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A83</f>
+        <f aca="false">IF(LEN(A83) &lt; 2,"AA4_0"&amp;A83,"AA4_"&amp;A83)</f>
         <v>AA4_83</v>
       </c>
     </row>
@@ -8592,10 +8652,10 @@
       </c>
       <c r="F84" s="0" t="str">
         <f aca="false">$D$81&amp;E84</f>
-        <v>081283388434</v>
+        <v>6281283389434</v>
       </c>
       <c r="G84" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A84</f>
+        <f aca="false">IF(LEN(A84) &lt; 2,"AA4_0"&amp;A84,"AA4_"&amp;A84)</f>
         <v>AA4_84</v>
       </c>
     </row>
@@ -8608,10 +8668,10 @@
       </c>
       <c r="F85" s="0" t="str">
         <f aca="false">$D$81&amp;E85</f>
-        <v>081283388435</v>
+        <v>6281283389435</v>
       </c>
       <c r="G85" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A85</f>
+        <f aca="false">IF(LEN(A85) &lt; 2,"AA4_0"&amp;A85,"AA4_"&amp;A85)</f>
         <v>AA4_85</v>
       </c>
     </row>
@@ -8624,10 +8684,10 @@
       </c>
       <c r="F86" s="0" t="str">
         <f aca="false">$D$81&amp;E86</f>
-        <v>081283388436</v>
+        <v>6281283389436</v>
       </c>
       <c r="G86" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A86</f>
+        <f aca="false">IF(LEN(A86) &lt; 2,"AA4_0"&amp;A86,"AA4_"&amp;A86)</f>
         <v>AA4_86</v>
       </c>
     </row>
@@ -8640,10 +8700,10 @@
       </c>
       <c r="F87" s="0" t="str">
         <f aca="false">$D$81&amp;E87</f>
-        <v>081283388437</v>
+        <v>6281283389437</v>
       </c>
       <c r="G87" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A87</f>
+        <f aca="false">IF(LEN(A87) &lt; 2,"AA4_0"&amp;A87,"AA4_"&amp;A87)</f>
         <v>AA4_87</v>
       </c>
     </row>
@@ -8656,10 +8716,10 @@
       </c>
       <c r="F88" s="0" t="str">
         <f aca="false">$D$81&amp;E88</f>
-        <v>081283388438</v>
+        <v>6281283389438</v>
       </c>
       <c r="G88" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A88</f>
+        <f aca="false">IF(LEN(A88) &lt; 2,"AA4_0"&amp;A88,"AA4_"&amp;A88)</f>
         <v>AA4_88</v>
       </c>
     </row>
@@ -8672,10 +8732,10 @@
       </c>
       <c r="F89" s="0" t="str">
         <f aca="false">$D$81&amp;E89</f>
-        <v>081283388439</v>
+        <v>6281283389439</v>
       </c>
       <c r="G89" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A89</f>
+        <f aca="false">IF(LEN(A89) &lt; 2,"AA4_0"&amp;A89,"AA4_"&amp;A89)</f>
         <v>AA4_89</v>
       </c>
     </row>
@@ -8688,10 +8748,10 @@
       </c>
       <c r="F90" s="0" t="str">
         <f aca="false">$D$81&amp;E90</f>
-        <v>081283388430</v>
+        <v>6281283389430</v>
       </c>
       <c r="G90" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A90</f>
+        <f aca="false">IF(LEN(A90) &lt; 2,"AA4_0"&amp;A90,"AA4_"&amp;A90)</f>
         <v>AA4_90</v>
       </c>
     </row>
@@ -8710,10 +8770,10 @@
       </c>
       <c r="F91" s="0" t="str">
         <f aca="false">$D$91&amp;E91</f>
-        <v>081283388441</v>
+        <v>6281283389441</v>
       </c>
       <c r="G91" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A91</f>
+        <f aca="false">IF(LEN(A91) &lt; 2,"AA4_0"&amp;A91,"AA4_"&amp;A91)</f>
         <v>AA4_91</v>
       </c>
     </row>
@@ -8726,10 +8786,10 @@
       </c>
       <c r="F92" s="0" t="str">
         <f aca="false">$D$91&amp;E92</f>
-        <v>081283388442</v>
+        <v>6281283389442</v>
       </c>
       <c r="G92" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A92</f>
+        <f aca="false">IF(LEN(A92) &lt; 2,"AA4_0"&amp;A92,"AA4_"&amp;A92)</f>
         <v>AA4_92</v>
       </c>
     </row>
@@ -8742,10 +8802,10 @@
       </c>
       <c r="F93" s="0" t="str">
         <f aca="false">$D$91&amp;E93</f>
-        <v>081283388443</v>
+        <v>6281283389443</v>
       </c>
       <c r="G93" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A93</f>
+        <f aca="false">IF(LEN(A93) &lt; 2,"AA4_0"&amp;A93,"AA4_"&amp;A93)</f>
         <v>AA4_93</v>
       </c>
     </row>
@@ -8758,10 +8818,10 @@
       </c>
       <c r="F94" s="0" t="str">
         <f aca="false">$D$91&amp;E94</f>
-        <v>081283388444</v>
+        <v>6281283389444</v>
       </c>
       <c r="G94" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A94</f>
+        <f aca="false">IF(LEN(A94) &lt; 2,"AA4_0"&amp;A94,"AA4_"&amp;A94)</f>
         <v>AA4_94</v>
       </c>
     </row>
@@ -8774,10 +8834,10 @@
       </c>
       <c r="F95" s="0" t="str">
         <f aca="false">$D$91&amp;E95</f>
-        <v>081283388445</v>
+        <v>6281283389445</v>
       </c>
       <c r="G95" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A95</f>
+        <f aca="false">IF(LEN(A95) &lt; 2,"AA4_0"&amp;A95,"AA4_"&amp;A95)</f>
         <v>AA4_95</v>
       </c>
     </row>
@@ -8790,10 +8850,10 @@
       </c>
       <c r="F96" s="0" t="str">
         <f aca="false">$D$91&amp;E96</f>
-        <v>081283388446</v>
+        <v>6281283389446</v>
       </c>
       <c r="G96" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A96</f>
+        <f aca="false">IF(LEN(A96) &lt; 2,"AA4_0"&amp;A96,"AA4_"&amp;A96)</f>
         <v>AA4_96</v>
       </c>
     </row>
@@ -8806,10 +8866,10 @@
       </c>
       <c r="F97" s="0" t="str">
         <f aca="false">$D$91&amp;E97</f>
-        <v>081283388447</v>
+        <v>6281283389447</v>
       </c>
       <c r="G97" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A97</f>
+        <f aca="false">IF(LEN(A97) &lt; 2,"AA4_0"&amp;A97,"AA4_"&amp;A97)</f>
         <v>AA4_97</v>
       </c>
     </row>
@@ -8822,10 +8882,10 @@
       </c>
       <c r="F98" s="0" t="str">
         <f aca="false">$D$91&amp;E98</f>
-        <v>081283388448</v>
+        <v>6281283389448</v>
       </c>
       <c r="G98" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A98</f>
+        <f aca="false">IF(LEN(A98) &lt; 2,"AA4_0"&amp;A98,"AA4_"&amp;A98)</f>
         <v>AA4_98</v>
       </c>
     </row>
@@ -8838,10 +8898,10 @@
       </c>
       <c r="F99" s="0" t="str">
         <f aca="false">$D$91&amp;E99</f>
-        <v>081283388449</v>
+        <v>6281283389449</v>
       </c>
       <c r="G99" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A99</f>
+        <f aca="false">IF(LEN(A99) &lt; 2,"AA4_0"&amp;A99,"AA4_"&amp;A99)</f>
         <v>AA4_99</v>
       </c>
     </row>
@@ -8854,10 +8914,10 @@
       </c>
       <c r="F100" s="0" t="str">
         <f aca="false">$D$91&amp;E100</f>
-        <v>081283388440</v>
+        <v>6281283389440</v>
       </c>
       <c r="G100" s="0" t="str">
-        <f aca="false">"AA4_"&amp;A100</f>
+        <f aca="false">IF(LEN(A100) &lt; 2,"AA4_0"&amp;A100,"AA4_"&amp;A100)</f>
         <v>AA4_100</v>
       </c>
     </row>
@@ -8875,16 +8935,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="F1:F100 B1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1:G100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -8910,11 +8970,11 @@
       </c>
       <c r="F1" s="0" t="str">
         <f aca="false">$D$1&amp;E1</f>
-        <v>081283388551</v>
+        <v>6281283389551</v>
       </c>
       <c r="G1" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A1</f>
-        <v>AA5_1</v>
+        <f aca="false">IF(LEN(A1) &lt; 2,"AA5_0"&amp;A1,"AA5_"&amp;A1)</f>
+        <v>AA5_01</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8926,11 +8986,11 @@
       </c>
       <c r="F2" s="0" t="str">
         <f aca="false">$D$1&amp;E2</f>
-        <v>081283388552</v>
+        <v>6281283389552</v>
       </c>
       <c r="G2" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A2</f>
-        <v>AA5_2</v>
+        <f aca="false">IF(LEN(A2) &lt; 2,"AA5_0"&amp;A2,"AA5_"&amp;A2)</f>
+        <v>AA5_02</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8942,11 +9002,11 @@
       </c>
       <c r="F3" s="0" t="str">
         <f aca="false">$D$1&amp;E3</f>
-        <v>081283388553</v>
+        <v>6281283389553</v>
       </c>
       <c r="G3" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A3</f>
-        <v>AA5_3</v>
+        <f aca="false">IF(LEN(A3) &lt; 2,"AA5_0"&amp;A3,"AA5_"&amp;A3)</f>
+        <v>AA5_03</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8958,11 +9018,11 @@
       </c>
       <c r="F4" s="0" t="str">
         <f aca="false">$D$1&amp;E4</f>
-        <v>081283388554</v>
+        <v>6281283389554</v>
       </c>
       <c r="G4" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A4</f>
-        <v>AA5_4</v>
+        <f aca="false">IF(LEN(A4) &lt; 2,"AA5_0"&amp;A4,"AA5_"&amp;A4)</f>
+        <v>AA5_04</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8974,11 +9034,11 @@
       </c>
       <c r="F5" s="0" t="str">
         <f aca="false">$D$1&amp;E5</f>
-        <v>081283388555</v>
+        <v>6281283389555</v>
       </c>
       <c r="G5" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A5</f>
-        <v>AA5_5</v>
+        <f aca="false">IF(LEN(A5) &lt; 2,"AA5_0"&amp;A5,"AA5_"&amp;A5)</f>
+        <v>AA5_05</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8990,11 +9050,11 @@
       </c>
       <c r="F6" s="0" t="str">
         <f aca="false">$D$1&amp;E6</f>
-        <v>081283388556</v>
+        <v>6281283389556</v>
       </c>
       <c r="G6" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A6</f>
-        <v>AA5_6</v>
+        <f aca="false">IF(LEN(A6) &lt; 2,"AA5_0"&amp;A6,"AA5_"&amp;A6)</f>
+        <v>AA5_06</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9006,11 +9066,11 @@
       </c>
       <c r="F7" s="0" t="str">
         <f aca="false">$D$1&amp;E7</f>
-        <v>081283388557</v>
+        <v>6281283389557</v>
       </c>
       <c r="G7" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A7</f>
-        <v>AA5_7</v>
+        <f aca="false">IF(LEN(A7) &lt; 2,"AA5_0"&amp;A7,"AA5_"&amp;A7)</f>
+        <v>AA5_07</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9022,11 +9082,11 @@
       </c>
       <c r="F8" s="0" t="str">
         <f aca="false">$D$1&amp;E8</f>
-        <v>081283388558</v>
+        <v>6281283389558</v>
       </c>
       <c r="G8" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A8</f>
-        <v>AA5_8</v>
+        <f aca="false">IF(LEN(A8) &lt; 2,"AA5_0"&amp;A8,"AA5_"&amp;A8)</f>
+        <v>AA5_08</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9038,11 +9098,11 @@
       </c>
       <c r="F9" s="0" t="str">
         <f aca="false">$D$1&amp;E9</f>
-        <v>081283388559</v>
+        <v>6281283389559</v>
       </c>
       <c r="G9" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A9</f>
-        <v>AA5_9</v>
+        <f aca="false">IF(LEN(A9) &lt; 2,"AA5_0"&amp;A9,"AA5_"&amp;A9)</f>
+        <v>AA5_09</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9054,10 +9114,10 @@
       </c>
       <c r="F10" s="0" t="str">
         <f aca="false">$D$1&amp;E10</f>
-        <v>081283388550</v>
+        <v>6281283389550</v>
       </c>
       <c r="G10" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A10</f>
+        <f aca="false">IF(LEN(A10) &lt; 2,"AA5_0"&amp;A10,"AA5_"&amp;A10)</f>
         <v>AA5_10</v>
       </c>
     </row>
@@ -9076,10 +9136,10 @@
       </c>
       <c r="F11" s="0" t="str">
         <f aca="false">$D$11&amp;E11</f>
-        <v>081283388561</v>
+        <v>6281283389561</v>
       </c>
       <c r="G11" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A11</f>
+        <f aca="false">IF(LEN(A11) &lt; 2,"AA5_0"&amp;A11,"AA5_"&amp;A11)</f>
         <v>AA5_11</v>
       </c>
     </row>
@@ -9092,10 +9152,10 @@
       </c>
       <c r="F12" s="0" t="str">
         <f aca="false">$D$11&amp;E12</f>
-        <v>081283388562</v>
+        <v>6281283389562</v>
       </c>
       <c r="G12" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A12</f>
+        <f aca="false">IF(LEN(A12) &lt; 2,"AA5_0"&amp;A12,"AA5_"&amp;A12)</f>
         <v>AA5_12</v>
       </c>
     </row>
@@ -9108,10 +9168,10 @@
       </c>
       <c r="F13" s="0" t="str">
         <f aca="false">$D$11&amp;E13</f>
-        <v>081283388563</v>
+        <v>6281283389563</v>
       </c>
       <c r="G13" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A13</f>
+        <f aca="false">IF(LEN(A13) &lt; 2,"AA5_0"&amp;A13,"AA5_"&amp;A13)</f>
         <v>AA5_13</v>
       </c>
     </row>
@@ -9124,10 +9184,10 @@
       </c>
       <c r="F14" s="0" t="str">
         <f aca="false">$D$11&amp;E14</f>
-        <v>081283388564</v>
+        <v>6281283389564</v>
       </c>
       <c r="G14" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A14</f>
+        <f aca="false">IF(LEN(A14) &lt; 2,"AA5_0"&amp;A14,"AA5_"&amp;A14)</f>
         <v>AA5_14</v>
       </c>
     </row>
@@ -9140,10 +9200,10 @@
       </c>
       <c r="F15" s="0" t="str">
         <f aca="false">$D$11&amp;E15</f>
-        <v>081283388565</v>
+        <v>6281283389565</v>
       </c>
       <c r="G15" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A15</f>
+        <f aca="false">IF(LEN(A15) &lt; 2,"AA5_0"&amp;A15,"AA5_"&amp;A15)</f>
         <v>AA5_15</v>
       </c>
     </row>
@@ -9156,10 +9216,10 @@
       </c>
       <c r="F16" s="0" t="str">
         <f aca="false">$D$11&amp;E16</f>
-        <v>081283388566</v>
+        <v>6281283389566</v>
       </c>
       <c r="G16" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A16</f>
+        <f aca="false">IF(LEN(A16) &lt; 2,"AA5_0"&amp;A16,"AA5_"&amp;A16)</f>
         <v>AA5_16</v>
       </c>
     </row>
@@ -9172,10 +9232,10 @@
       </c>
       <c r="F17" s="0" t="str">
         <f aca="false">$D$11&amp;E17</f>
-        <v>081283388567</v>
+        <v>6281283389567</v>
       </c>
       <c r="G17" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A17</f>
+        <f aca="false">IF(LEN(A17) &lt; 2,"AA5_0"&amp;A17,"AA5_"&amp;A17)</f>
         <v>AA5_17</v>
       </c>
     </row>
@@ -9188,10 +9248,10 @@
       </c>
       <c r="F18" s="0" t="str">
         <f aca="false">$D$11&amp;E18</f>
-        <v>081283388568</v>
+        <v>6281283389568</v>
       </c>
       <c r="G18" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A18</f>
+        <f aca="false">IF(LEN(A18) &lt; 2,"AA5_0"&amp;A18,"AA5_"&amp;A18)</f>
         <v>AA5_18</v>
       </c>
     </row>
@@ -9204,10 +9264,10 @@
       </c>
       <c r="F19" s="0" t="str">
         <f aca="false">$D$11&amp;E19</f>
-        <v>081283388569</v>
+        <v>6281283389569</v>
       </c>
       <c r="G19" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A19</f>
+        <f aca="false">IF(LEN(A19) &lt; 2,"AA5_0"&amp;A19,"AA5_"&amp;A19)</f>
         <v>AA5_19</v>
       </c>
     </row>
@@ -9220,10 +9280,10 @@
       </c>
       <c r="F20" s="0" t="str">
         <f aca="false">$D$11&amp;E20</f>
-        <v>081283388560</v>
+        <v>6281283389560</v>
       </c>
       <c r="G20" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A20</f>
+        <f aca="false">IF(LEN(A20) &lt; 2,"AA5_0"&amp;A20,"AA5_"&amp;A20)</f>
         <v>AA5_20</v>
       </c>
     </row>
@@ -9242,10 +9302,10 @@
       </c>
       <c r="F21" s="0" t="str">
         <f aca="false">$D$21&amp;E21</f>
-        <v>081283388571</v>
+        <v>6281283389571</v>
       </c>
       <c r="G21" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A21</f>
+        <f aca="false">IF(LEN(A21) &lt; 2,"AA5_0"&amp;A21,"AA5_"&amp;A21)</f>
         <v>AA5_21</v>
       </c>
     </row>
@@ -9258,10 +9318,10 @@
       </c>
       <c r="F22" s="0" t="str">
         <f aca="false">$D$21&amp;E22</f>
-        <v>081283388572</v>
+        <v>6281283389572</v>
       </c>
       <c r="G22" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A22</f>
+        <f aca="false">IF(LEN(A22) &lt; 2,"AA5_0"&amp;A22,"AA5_"&amp;A22)</f>
         <v>AA5_22</v>
       </c>
     </row>
@@ -9274,10 +9334,10 @@
       </c>
       <c r="F23" s="0" t="str">
         <f aca="false">$D$21&amp;E23</f>
-        <v>081283388573</v>
+        <v>6281283389573</v>
       </c>
       <c r="G23" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A23</f>
+        <f aca="false">IF(LEN(A23) &lt; 2,"AA5_0"&amp;A23,"AA5_"&amp;A23)</f>
         <v>AA5_23</v>
       </c>
     </row>
@@ -9290,10 +9350,10 @@
       </c>
       <c r="F24" s="0" t="str">
         <f aca="false">$D$21&amp;E24</f>
-        <v>081283388574</v>
+        <v>6281283389574</v>
       </c>
       <c r="G24" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A24</f>
+        <f aca="false">IF(LEN(A24) &lt; 2,"AA5_0"&amp;A24,"AA5_"&amp;A24)</f>
         <v>AA5_24</v>
       </c>
     </row>
@@ -9306,10 +9366,10 @@
       </c>
       <c r="F25" s="0" t="str">
         <f aca="false">$D$21&amp;E25</f>
-        <v>081283388575</v>
+        <v>6281283389575</v>
       </c>
       <c r="G25" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A25</f>
+        <f aca="false">IF(LEN(A25) &lt; 2,"AA5_0"&amp;A25,"AA5_"&amp;A25)</f>
         <v>AA5_25</v>
       </c>
     </row>
@@ -9322,10 +9382,10 @@
       </c>
       <c r="F26" s="0" t="str">
         <f aca="false">$D$21&amp;E26</f>
-        <v>081283388576</v>
+        <v>6281283389576</v>
       </c>
       <c r="G26" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A26</f>
+        <f aca="false">IF(LEN(A26) &lt; 2,"AA5_0"&amp;A26,"AA5_"&amp;A26)</f>
         <v>AA5_26</v>
       </c>
     </row>
@@ -9338,10 +9398,10 @@
       </c>
       <c r="F27" s="0" t="str">
         <f aca="false">$D$21&amp;E27</f>
-        <v>081283388577</v>
+        <v>6281283389577</v>
       </c>
       <c r="G27" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A27</f>
+        <f aca="false">IF(LEN(A27) &lt; 2,"AA5_0"&amp;A27,"AA5_"&amp;A27)</f>
         <v>AA5_27</v>
       </c>
     </row>
@@ -9354,10 +9414,10 @@
       </c>
       <c r="F28" s="0" t="str">
         <f aca="false">$D$21&amp;E28</f>
-        <v>081283388578</v>
+        <v>6281283389578</v>
       </c>
       <c r="G28" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A28</f>
+        <f aca="false">IF(LEN(A28) &lt; 2,"AA5_0"&amp;A28,"AA5_"&amp;A28)</f>
         <v>AA5_28</v>
       </c>
     </row>
@@ -9370,10 +9430,10 @@
       </c>
       <c r="F29" s="0" t="str">
         <f aca="false">$D$21&amp;E29</f>
-        <v>081283388579</v>
+        <v>6281283389579</v>
       </c>
       <c r="G29" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A29</f>
+        <f aca="false">IF(LEN(A29) &lt; 2,"AA5_0"&amp;A29,"AA5_"&amp;A29)</f>
         <v>AA5_29</v>
       </c>
     </row>
@@ -9386,10 +9446,10 @@
       </c>
       <c r="F30" s="0" t="str">
         <f aca="false">$D$21&amp;E30</f>
-        <v>081283388570</v>
+        <v>6281283389570</v>
       </c>
       <c r="G30" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A30</f>
+        <f aca="false">IF(LEN(A30) &lt; 2,"AA5_0"&amp;A30,"AA5_"&amp;A30)</f>
         <v>AA5_30</v>
       </c>
     </row>
@@ -9408,10 +9468,10 @@
       </c>
       <c r="F31" s="0" t="str">
         <f aca="false">$D$31&amp;E31</f>
-        <v>081283388581</v>
+        <v>6281283389581</v>
       </c>
       <c r="G31" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A31</f>
+        <f aca="false">IF(LEN(A31) &lt; 2,"AA5_0"&amp;A31,"AA5_"&amp;A31)</f>
         <v>AA5_31</v>
       </c>
     </row>
@@ -9424,10 +9484,10 @@
       </c>
       <c r="F32" s="0" t="str">
         <f aca="false">$D$31&amp;E32</f>
-        <v>081283388582</v>
+        <v>6281283389582</v>
       </c>
       <c r="G32" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A32</f>
+        <f aca="false">IF(LEN(A32) &lt; 2,"AA5_0"&amp;A32,"AA5_"&amp;A32)</f>
         <v>AA5_32</v>
       </c>
     </row>
@@ -9440,10 +9500,10 @@
       </c>
       <c r="F33" s="0" t="str">
         <f aca="false">$D$31&amp;E33</f>
-        <v>081283388583</v>
+        <v>6281283389583</v>
       </c>
       <c r="G33" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A33</f>
+        <f aca="false">IF(LEN(A33) &lt; 2,"AA5_0"&amp;A33,"AA5_"&amp;A33)</f>
         <v>AA5_33</v>
       </c>
     </row>
@@ -9456,10 +9516,10 @@
       </c>
       <c r="F34" s="0" t="str">
         <f aca="false">$D$31&amp;E34</f>
-        <v>081283388584</v>
+        <v>6281283389584</v>
       </c>
       <c r="G34" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A34</f>
+        <f aca="false">IF(LEN(A34) &lt; 2,"AA5_0"&amp;A34,"AA5_"&amp;A34)</f>
         <v>AA5_34</v>
       </c>
     </row>
@@ -9472,10 +9532,10 @@
       </c>
       <c r="F35" s="0" t="str">
         <f aca="false">$D$31&amp;E35</f>
-        <v>081283388585</v>
+        <v>6281283389585</v>
       </c>
       <c r="G35" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A35</f>
+        <f aca="false">IF(LEN(A35) &lt; 2,"AA5_0"&amp;A35,"AA5_"&amp;A35)</f>
         <v>AA5_35</v>
       </c>
     </row>
@@ -9488,10 +9548,10 @@
       </c>
       <c r="F36" s="0" t="str">
         <f aca="false">$D$31&amp;E36</f>
-        <v>081283388586</v>
+        <v>6281283389586</v>
       </c>
       <c r="G36" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A36</f>
+        <f aca="false">IF(LEN(A36) &lt; 2,"AA5_0"&amp;A36,"AA5_"&amp;A36)</f>
         <v>AA5_36</v>
       </c>
     </row>
@@ -9504,10 +9564,10 @@
       </c>
       <c r="F37" s="0" t="str">
         <f aca="false">$D$31&amp;E37</f>
-        <v>081283388587</v>
+        <v>6281283389587</v>
       </c>
       <c r="G37" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A37</f>
+        <f aca="false">IF(LEN(A37) &lt; 2,"AA5_0"&amp;A37,"AA5_"&amp;A37)</f>
         <v>AA5_37</v>
       </c>
     </row>
@@ -9520,10 +9580,10 @@
       </c>
       <c r="F38" s="0" t="str">
         <f aca="false">$D$31&amp;E38</f>
-        <v>081283388588</v>
+        <v>6281283389588</v>
       </c>
       <c r="G38" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A38</f>
+        <f aca="false">IF(LEN(A38) &lt; 2,"AA5_0"&amp;A38,"AA5_"&amp;A38)</f>
         <v>AA5_38</v>
       </c>
     </row>
@@ -9536,10 +9596,10 @@
       </c>
       <c r="F39" s="0" t="str">
         <f aca="false">$D$31&amp;E39</f>
-        <v>081283388589</v>
+        <v>6281283389589</v>
       </c>
       <c r="G39" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A39</f>
+        <f aca="false">IF(LEN(A39) &lt; 2,"AA5_0"&amp;A39,"AA5_"&amp;A39)</f>
         <v>AA5_39</v>
       </c>
     </row>
@@ -9552,10 +9612,10 @@
       </c>
       <c r="F40" s="0" t="str">
         <f aca="false">$D$31&amp;E40</f>
-        <v>081283388580</v>
+        <v>6281283389580</v>
       </c>
       <c r="G40" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A40</f>
+        <f aca="false">IF(LEN(A40) &lt; 2,"AA5_0"&amp;A40,"AA5_"&amp;A40)</f>
         <v>AA5_40</v>
       </c>
     </row>
@@ -9574,10 +9634,10 @@
       </c>
       <c r="F41" s="0" t="str">
         <f aca="false">$D$41&amp;E41</f>
-        <v>081283388591</v>
+        <v>6281283389591</v>
       </c>
       <c r="G41" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A41</f>
+        <f aca="false">IF(LEN(A41) &lt; 2,"AA5_0"&amp;A41,"AA5_"&amp;A41)</f>
         <v>AA5_41</v>
       </c>
     </row>
@@ -9590,10 +9650,10 @@
       </c>
       <c r="F42" s="0" t="str">
         <f aca="false">$D$41&amp;E42</f>
-        <v>081283388592</v>
+        <v>6281283389592</v>
       </c>
       <c r="G42" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A42</f>
+        <f aca="false">IF(LEN(A42) &lt; 2,"AA5_0"&amp;A42,"AA5_"&amp;A42)</f>
         <v>AA5_42</v>
       </c>
     </row>
@@ -9606,10 +9666,10 @@
       </c>
       <c r="F43" s="0" t="str">
         <f aca="false">$D$41&amp;E43</f>
-        <v>081283388593</v>
+        <v>6281283389593</v>
       </c>
       <c r="G43" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A43</f>
+        <f aca="false">IF(LEN(A43) &lt; 2,"AA5_0"&amp;A43,"AA5_"&amp;A43)</f>
         <v>AA5_43</v>
       </c>
     </row>
@@ -9622,10 +9682,10 @@
       </c>
       <c r="F44" s="0" t="str">
         <f aca="false">$D$41&amp;E44</f>
-        <v>081283388594</v>
+        <v>6281283389594</v>
       </c>
       <c r="G44" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A44</f>
+        <f aca="false">IF(LEN(A44) &lt; 2,"AA5_0"&amp;A44,"AA5_"&amp;A44)</f>
         <v>AA5_44</v>
       </c>
     </row>
@@ -9638,10 +9698,10 @@
       </c>
       <c r="F45" s="0" t="str">
         <f aca="false">$D$41&amp;E45</f>
-        <v>081283388595</v>
+        <v>6281283389595</v>
       </c>
       <c r="G45" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A45</f>
+        <f aca="false">IF(LEN(A45) &lt; 2,"AA5_0"&amp;A45,"AA5_"&amp;A45)</f>
         <v>AA5_45</v>
       </c>
     </row>
@@ -9654,10 +9714,10 @@
       </c>
       <c r="F46" s="0" t="str">
         <f aca="false">$D$41&amp;E46</f>
-        <v>081283388596</v>
+        <v>6281283389596</v>
       </c>
       <c r="G46" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A46</f>
+        <f aca="false">IF(LEN(A46) &lt; 2,"AA5_0"&amp;A46,"AA5_"&amp;A46)</f>
         <v>AA5_46</v>
       </c>
     </row>
@@ -9670,10 +9730,10 @@
       </c>
       <c r="F47" s="0" t="str">
         <f aca="false">$D$41&amp;E47</f>
-        <v>081283388597</v>
+        <v>6281283389597</v>
       </c>
       <c r="G47" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A47</f>
+        <f aca="false">IF(LEN(A47) &lt; 2,"AA5_0"&amp;A47,"AA5_"&amp;A47)</f>
         <v>AA5_47</v>
       </c>
     </row>
@@ -9686,10 +9746,10 @@
       </c>
       <c r="F48" s="0" t="str">
         <f aca="false">$D$41&amp;E48</f>
-        <v>081283388598</v>
+        <v>6281283389598</v>
       </c>
       <c r="G48" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A48</f>
+        <f aca="false">IF(LEN(A48) &lt; 2,"AA5_0"&amp;A48,"AA5_"&amp;A48)</f>
         <v>AA5_48</v>
       </c>
     </row>
@@ -9702,10 +9762,10 @@
       </c>
       <c r="F49" s="0" t="str">
         <f aca="false">$D$41&amp;E49</f>
-        <v>081283388599</v>
+        <v>6281283389599</v>
       </c>
       <c r="G49" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A49</f>
+        <f aca="false">IF(LEN(A49) &lt; 2,"AA5_0"&amp;A49,"AA5_"&amp;A49)</f>
         <v>AA5_49</v>
       </c>
     </row>
@@ -9718,10 +9778,10 @@
       </c>
       <c r="F50" s="0" t="str">
         <f aca="false">$D$41&amp;E50</f>
-        <v>081283388590</v>
+        <v>6281283389590</v>
       </c>
       <c r="G50" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A50</f>
+        <f aca="false">IF(LEN(A50) &lt; 2,"AA5_0"&amp;A50,"AA5_"&amp;A50)</f>
         <v>AA5_50</v>
       </c>
     </row>
@@ -9740,10 +9800,10 @@
       </c>
       <c r="F51" s="0" t="str">
         <f aca="false">$D$51&amp;E51</f>
-        <v>081283388501</v>
+        <v>6281283389501</v>
       </c>
       <c r="G51" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A51</f>
+        <f aca="false">IF(LEN(A51) &lt; 2,"AA5_0"&amp;A51,"AA5_"&amp;A51)</f>
         <v>AA5_51</v>
       </c>
     </row>
@@ -9756,10 +9816,10 @@
       </c>
       <c r="F52" s="0" t="str">
         <f aca="false">$D$51&amp;E52</f>
-        <v>081283388502</v>
+        <v>6281283389502</v>
       </c>
       <c r="G52" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A52</f>
+        <f aca="false">IF(LEN(A52) &lt; 2,"AA5_0"&amp;A52,"AA5_"&amp;A52)</f>
         <v>AA5_52</v>
       </c>
     </row>
@@ -9772,10 +9832,10 @@
       </c>
       <c r="F53" s="0" t="str">
         <f aca="false">$D$51&amp;E53</f>
-        <v>081283388503</v>
+        <v>6281283389503</v>
       </c>
       <c r="G53" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A53</f>
+        <f aca="false">IF(LEN(A53) &lt; 2,"AA5_0"&amp;A53,"AA5_"&amp;A53)</f>
         <v>AA5_53</v>
       </c>
     </row>
@@ -9788,10 +9848,10 @@
       </c>
       <c r="F54" s="0" t="str">
         <f aca="false">$D$51&amp;E54</f>
-        <v>081283388504</v>
+        <v>6281283389504</v>
       </c>
       <c r="G54" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A54</f>
+        <f aca="false">IF(LEN(A54) &lt; 2,"AA5_0"&amp;A54,"AA5_"&amp;A54)</f>
         <v>AA5_54</v>
       </c>
     </row>
@@ -9804,10 +9864,10 @@
       </c>
       <c r="F55" s="0" t="str">
         <f aca="false">$D$51&amp;E55</f>
-        <v>081283388505</v>
+        <v>6281283389505</v>
       </c>
       <c r="G55" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A55</f>
+        <f aca="false">IF(LEN(A55) &lt; 2,"AA5_0"&amp;A55,"AA5_"&amp;A55)</f>
         <v>AA5_55</v>
       </c>
     </row>
@@ -9820,10 +9880,10 @@
       </c>
       <c r="F56" s="0" t="str">
         <f aca="false">$D$51&amp;E56</f>
-        <v>081283388506</v>
+        <v>6281283389506</v>
       </c>
       <c r="G56" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A56</f>
+        <f aca="false">IF(LEN(A56) &lt; 2,"AA5_0"&amp;A56,"AA5_"&amp;A56)</f>
         <v>AA5_56</v>
       </c>
     </row>
@@ -9836,10 +9896,10 @@
       </c>
       <c r="F57" s="0" t="str">
         <f aca="false">$D$51&amp;E57</f>
-        <v>081283388507</v>
+        <v>6281283389507</v>
       </c>
       <c r="G57" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A57</f>
+        <f aca="false">IF(LEN(A57) &lt; 2,"AA5_0"&amp;A57,"AA5_"&amp;A57)</f>
         <v>AA5_57</v>
       </c>
     </row>
@@ -9852,10 +9912,10 @@
       </c>
       <c r="F58" s="0" t="str">
         <f aca="false">$D$51&amp;E58</f>
-        <v>081283388508</v>
+        <v>6281283389508</v>
       </c>
       <c r="G58" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A58</f>
+        <f aca="false">IF(LEN(A58) &lt; 2,"AA5_0"&amp;A58,"AA5_"&amp;A58)</f>
         <v>AA5_58</v>
       </c>
     </row>
@@ -9868,10 +9928,10 @@
       </c>
       <c r="F59" s="0" t="str">
         <f aca="false">$D$51&amp;E59</f>
-        <v>081283388509</v>
+        <v>6281283389509</v>
       </c>
       <c r="G59" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A59</f>
+        <f aca="false">IF(LEN(A59) &lt; 2,"AA5_0"&amp;A59,"AA5_"&amp;A59)</f>
         <v>AA5_59</v>
       </c>
     </row>
@@ -9884,10 +9944,10 @@
       </c>
       <c r="F60" s="0" t="str">
         <f aca="false">$D$51&amp;E60</f>
-        <v>081283388500</v>
+        <v>6281283389500</v>
       </c>
       <c r="G60" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A60</f>
+        <f aca="false">IF(LEN(A60) &lt; 2,"AA5_0"&amp;A60,"AA5_"&amp;A60)</f>
         <v>AA5_60</v>
       </c>
     </row>
@@ -9903,10 +9963,10 @@
       </c>
       <c r="F61" s="0" t="str">
         <f aca="false">$D$61&amp;E61</f>
-        <v>081283388511</v>
+        <v>6281283389511</v>
       </c>
       <c r="G61" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A61</f>
+        <f aca="false">IF(LEN(A61) &lt; 2,"AA5_0"&amp;A61,"AA5_"&amp;A61)</f>
         <v>AA5_61</v>
       </c>
     </row>
@@ -9919,10 +9979,10 @@
       </c>
       <c r="F62" s="0" t="str">
         <f aca="false">$D$61&amp;E62</f>
-        <v>081283388512</v>
+        <v>6281283389512</v>
       </c>
       <c r="G62" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A62</f>
+        <f aca="false">IF(LEN(A62) &lt; 2,"AA5_0"&amp;A62,"AA5_"&amp;A62)</f>
         <v>AA5_62</v>
       </c>
     </row>
@@ -9935,10 +9995,10 @@
       </c>
       <c r="F63" s="0" t="str">
         <f aca="false">$D$61&amp;E63</f>
-        <v>081283388513</v>
+        <v>6281283389513</v>
       </c>
       <c r="G63" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A63</f>
+        <f aca="false">IF(LEN(A63) &lt; 2,"AA5_0"&amp;A63,"AA5_"&amp;A63)</f>
         <v>AA5_63</v>
       </c>
     </row>
@@ -9951,10 +10011,10 @@
       </c>
       <c r="F64" s="0" t="str">
         <f aca="false">$D$61&amp;E64</f>
-        <v>081283388514</v>
+        <v>6281283389514</v>
       </c>
       <c r="G64" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A64</f>
+        <f aca="false">IF(LEN(A64) &lt; 2,"AA5_0"&amp;A64,"AA5_"&amp;A64)</f>
         <v>AA5_64</v>
       </c>
     </row>
@@ -9967,10 +10027,10 @@
       </c>
       <c r="F65" s="0" t="str">
         <f aca="false">$D$61&amp;E65</f>
-        <v>081283388515</v>
+        <v>6281283389515</v>
       </c>
       <c r="G65" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A65</f>
+        <f aca="false">IF(LEN(A65) &lt; 2,"AA5_0"&amp;A65,"AA5_"&amp;A65)</f>
         <v>AA5_65</v>
       </c>
     </row>
@@ -9983,10 +10043,10 @@
       </c>
       <c r="F66" s="0" t="str">
         <f aca="false">$D$61&amp;E66</f>
-        <v>081283388516</v>
+        <v>6281283389516</v>
       </c>
       <c r="G66" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A66</f>
+        <f aca="false">IF(LEN(A66) &lt; 2,"AA5_0"&amp;A66,"AA5_"&amp;A66)</f>
         <v>AA5_66</v>
       </c>
     </row>
@@ -9999,10 +10059,10 @@
       </c>
       <c r="F67" s="0" t="str">
         <f aca="false">$D$61&amp;E67</f>
-        <v>081283388517</v>
+        <v>6281283389517</v>
       </c>
       <c r="G67" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A67</f>
+        <f aca="false">IF(LEN(A67) &lt; 2,"AA5_0"&amp;A67,"AA5_"&amp;A67)</f>
         <v>AA5_67</v>
       </c>
     </row>
@@ -10015,10 +10075,10 @@
       </c>
       <c r="F68" s="0" t="str">
         <f aca="false">$D$61&amp;E68</f>
-        <v>081283388518</v>
+        <v>6281283389518</v>
       </c>
       <c r="G68" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A68</f>
+        <f aca="false">IF(LEN(A68) &lt; 2,"AA5_0"&amp;A68,"AA5_"&amp;A68)</f>
         <v>AA5_68</v>
       </c>
     </row>
@@ -10031,10 +10091,10 @@
       </c>
       <c r="F69" s="0" t="str">
         <f aca="false">$D$61&amp;E69</f>
-        <v>081283388519</v>
+        <v>6281283389519</v>
       </c>
       <c r="G69" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A69</f>
+        <f aca="false">IF(LEN(A69) &lt; 2,"AA5_0"&amp;A69,"AA5_"&amp;A69)</f>
         <v>AA5_69</v>
       </c>
     </row>
@@ -10047,10 +10107,10 @@
       </c>
       <c r="F70" s="0" t="str">
         <f aca="false">$D$61&amp;E70</f>
-        <v>081283388510</v>
+        <v>6281283389510</v>
       </c>
       <c r="G70" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A70</f>
+        <f aca="false">IF(LEN(A70) &lt; 2,"AA5_0"&amp;A70,"AA5_"&amp;A70)</f>
         <v>AA5_70</v>
       </c>
     </row>
@@ -10066,10 +10126,10 @@
       </c>
       <c r="F71" s="0" t="str">
         <f aca="false">$D$71&amp;E71</f>
-        <v>081283388521</v>
+        <v>6281283389521</v>
       </c>
       <c r="G71" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A71</f>
+        <f aca="false">IF(LEN(A71) &lt; 2,"AA5_0"&amp;A71,"AA5_"&amp;A71)</f>
         <v>AA5_71</v>
       </c>
     </row>
@@ -10082,10 +10142,10 @@
       </c>
       <c r="F72" s="0" t="str">
         <f aca="false">$D$71&amp;E72</f>
-        <v>081283388522</v>
+        <v>6281283389522</v>
       </c>
       <c r="G72" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A72</f>
+        <f aca="false">IF(LEN(A72) &lt; 2,"AA5_0"&amp;A72,"AA5_"&amp;A72)</f>
         <v>AA5_72</v>
       </c>
     </row>
@@ -10098,10 +10158,10 @@
       </c>
       <c r="F73" s="0" t="str">
         <f aca="false">$D$71&amp;E73</f>
-        <v>081283388523</v>
+        <v>6281283389523</v>
       </c>
       <c r="G73" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A73</f>
+        <f aca="false">IF(LEN(A73) &lt; 2,"AA5_0"&amp;A73,"AA5_"&amp;A73)</f>
         <v>AA5_73</v>
       </c>
     </row>
@@ -10114,10 +10174,10 @@
       </c>
       <c r="F74" s="0" t="str">
         <f aca="false">$D$71&amp;E74</f>
-        <v>081283388524</v>
+        <v>6281283389524</v>
       </c>
       <c r="G74" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A74</f>
+        <f aca="false">IF(LEN(A74) &lt; 2,"AA5_0"&amp;A74,"AA5_"&amp;A74)</f>
         <v>AA5_74</v>
       </c>
     </row>
@@ -10130,10 +10190,10 @@
       </c>
       <c r="F75" s="0" t="str">
         <f aca="false">$D$71&amp;E75</f>
-        <v>081283388525</v>
+        <v>6281283389525</v>
       </c>
       <c r="G75" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A75</f>
+        <f aca="false">IF(LEN(A75) &lt; 2,"AA5_0"&amp;A75,"AA5_"&amp;A75)</f>
         <v>AA5_75</v>
       </c>
     </row>
@@ -10146,10 +10206,10 @@
       </c>
       <c r="F76" s="0" t="str">
         <f aca="false">$D$71&amp;E76</f>
-        <v>081283388526</v>
+        <v>6281283389526</v>
       </c>
       <c r="G76" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A76</f>
+        <f aca="false">IF(LEN(A76) &lt; 2,"AA5_0"&amp;A76,"AA5_"&amp;A76)</f>
         <v>AA5_76</v>
       </c>
     </row>
@@ -10162,10 +10222,10 @@
       </c>
       <c r="F77" s="0" t="str">
         <f aca="false">$D$71&amp;E77</f>
-        <v>081283388527</v>
+        <v>6281283389527</v>
       </c>
       <c r="G77" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A77</f>
+        <f aca="false">IF(LEN(A77) &lt; 2,"AA5_0"&amp;A77,"AA5_"&amp;A77)</f>
         <v>AA5_77</v>
       </c>
     </row>
@@ -10178,10 +10238,10 @@
       </c>
       <c r="F78" s="0" t="str">
         <f aca="false">$D$71&amp;E78</f>
-        <v>081283388528</v>
+        <v>6281283389528</v>
       </c>
       <c r="G78" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A78</f>
+        <f aca="false">IF(LEN(A78) &lt; 2,"AA5_0"&amp;A78,"AA5_"&amp;A78)</f>
         <v>AA5_78</v>
       </c>
     </row>
@@ -10194,10 +10254,10 @@
       </c>
       <c r="F79" s="0" t="str">
         <f aca="false">$D$71&amp;E79</f>
-        <v>081283388529</v>
+        <v>6281283389529</v>
       </c>
       <c r="G79" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A79</f>
+        <f aca="false">IF(LEN(A79) &lt; 2,"AA5_0"&amp;A79,"AA5_"&amp;A79)</f>
         <v>AA5_79</v>
       </c>
     </row>
@@ -10210,10 +10270,10 @@
       </c>
       <c r="F80" s="0" t="str">
         <f aca="false">$D$71&amp;E80</f>
-        <v>081283388520</v>
+        <v>6281283389520</v>
       </c>
       <c r="G80" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A80</f>
+        <f aca="false">IF(LEN(A80) &lt; 2,"AA5_0"&amp;A80,"AA5_"&amp;A80)</f>
         <v>AA5_80</v>
       </c>
     </row>
@@ -10229,10 +10289,10 @@
       </c>
       <c r="F81" s="0" t="str">
         <f aca="false">$D$81&amp;E81</f>
-        <v>081283388531</v>
+        <v>6281283389531</v>
       </c>
       <c r="G81" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A81</f>
+        <f aca="false">IF(LEN(A81) &lt; 2,"AA5_0"&amp;A81,"AA5_"&amp;A81)</f>
         <v>AA5_81</v>
       </c>
     </row>
@@ -10245,10 +10305,10 @@
       </c>
       <c r="F82" s="0" t="str">
         <f aca="false">$D$81&amp;E82</f>
-        <v>081283388532</v>
+        <v>6281283389532</v>
       </c>
       <c r="G82" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A82</f>
+        <f aca="false">IF(LEN(A82) &lt; 2,"AA5_0"&amp;A82,"AA5_"&amp;A82)</f>
         <v>AA5_82</v>
       </c>
     </row>
@@ -10261,10 +10321,10 @@
       </c>
       <c r="F83" s="0" t="str">
         <f aca="false">$D$81&amp;E83</f>
-        <v>081283388533</v>
+        <v>6281283389533</v>
       </c>
       <c r="G83" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A83</f>
+        <f aca="false">IF(LEN(A83) &lt; 2,"AA5_0"&amp;A83,"AA5_"&amp;A83)</f>
         <v>AA5_83</v>
       </c>
     </row>
@@ -10277,10 +10337,10 @@
       </c>
       <c r="F84" s="0" t="str">
         <f aca="false">$D$81&amp;E84</f>
-        <v>081283388534</v>
+        <v>6281283389534</v>
       </c>
       <c r="G84" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A84</f>
+        <f aca="false">IF(LEN(A84) &lt; 2,"AA5_0"&amp;A84,"AA5_"&amp;A84)</f>
         <v>AA5_84</v>
       </c>
     </row>
@@ -10293,10 +10353,10 @@
       </c>
       <c r="F85" s="0" t="str">
         <f aca="false">$D$81&amp;E85</f>
-        <v>081283388535</v>
+        <v>6281283389535</v>
       </c>
       <c r="G85" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A85</f>
+        <f aca="false">IF(LEN(A85) &lt; 2,"AA5_0"&amp;A85,"AA5_"&amp;A85)</f>
         <v>AA5_85</v>
       </c>
     </row>
@@ -10309,10 +10369,10 @@
       </c>
       <c r="F86" s="0" t="str">
         <f aca="false">$D$81&amp;E86</f>
-        <v>081283388536</v>
+        <v>6281283389536</v>
       </c>
       <c r="G86" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A86</f>
+        <f aca="false">IF(LEN(A86) &lt; 2,"AA5_0"&amp;A86,"AA5_"&amp;A86)</f>
         <v>AA5_86</v>
       </c>
     </row>
@@ -10325,10 +10385,10 @@
       </c>
       <c r="F87" s="0" t="str">
         <f aca="false">$D$81&amp;E87</f>
-        <v>081283388537</v>
+        <v>6281283389537</v>
       </c>
       <c r="G87" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A87</f>
+        <f aca="false">IF(LEN(A87) &lt; 2,"AA5_0"&amp;A87,"AA5_"&amp;A87)</f>
         <v>AA5_87</v>
       </c>
     </row>
@@ -10341,10 +10401,10 @@
       </c>
       <c r="F88" s="0" t="str">
         <f aca="false">$D$81&amp;E88</f>
-        <v>081283388538</v>
+        <v>6281283389538</v>
       </c>
       <c r="G88" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A88</f>
+        <f aca="false">IF(LEN(A88) &lt; 2,"AA5_0"&amp;A88,"AA5_"&amp;A88)</f>
         <v>AA5_88</v>
       </c>
     </row>
@@ -10357,10 +10417,10 @@
       </c>
       <c r="F89" s="0" t="str">
         <f aca="false">$D$81&amp;E89</f>
-        <v>081283388539</v>
+        <v>6281283389539</v>
       </c>
       <c r="G89" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A89</f>
+        <f aca="false">IF(LEN(A89) &lt; 2,"AA5_0"&amp;A89,"AA5_"&amp;A89)</f>
         <v>AA5_89</v>
       </c>
     </row>
@@ -10373,10 +10433,10 @@
       </c>
       <c r="F90" s="0" t="str">
         <f aca="false">$D$81&amp;E90</f>
-        <v>081283388530</v>
+        <v>6281283389530</v>
       </c>
       <c r="G90" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A90</f>
+        <f aca="false">IF(LEN(A90) &lt; 2,"AA5_0"&amp;A90,"AA5_"&amp;A90)</f>
         <v>AA5_90</v>
       </c>
     </row>
@@ -10392,10 +10452,10 @@
       </c>
       <c r="F91" s="0" t="str">
         <f aca="false">$D$91&amp;E91</f>
-        <v>081283388541</v>
+        <v>6281283389541</v>
       </c>
       <c r="G91" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A91</f>
+        <f aca="false">IF(LEN(A91) &lt; 2,"AA5_0"&amp;A91,"AA5_"&amp;A91)</f>
         <v>AA5_91</v>
       </c>
     </row>
@@ -10408,10 +10468,10 @@
       </c>
       <c r="F92" s="0" t="str">
         <f aca="false">$D$91&amp;E92</f>
-        <v>081283388542</v>
+        <v>6281283389542</v>
       </c>
       <c r="G92" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A92</f>
+        <f aca="false">IF(LEN(A92) &lt; 2,"AA5_0"&amp;A92,"AA5_"&amp;A92)</f>
         <v>AA5_92</v>
       </c>
     </row>
@@ -10424,10 +10484,10 @@
       </c>
       <c r="F93" s="0" t="str">
         <f aca="false">$D$91&amp;E93</f>
-        <v>081283388543</v>
+        <v>6281283389543</v>
       </c>
       <c r="G93" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A93</f>
+        <f aca="false">IF(LEN(A93) &lt; 2,"AA5_0"&amp;A93,"AA5_"&amp;A93)</f>
         <v>AA5_93</v>
       </c>
     </row>
@@ -10440,10 +10500,10 @@
       </c>
       <c r="F94" s="0" t="str">
         <f aca="false">$D$91&amp;E94</f>
-        <v>081283388544</v>
+        <v>6281283389544</v>
       </c>
       <c r="G94" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A94</f>
+        <f aca="false">IF(LEN(A94) &lt; 2,"AA5_0"&amp;A94,"AA5_"&amp;A94)</f>
         <v>AA5_94</v>
       </c>
     </row>
@@ -10456,10 +10516,10 @@
       </c>
       <c r="F95" s="0" t="str">
         <f aca="false">$D$91&amp;E95</f>
-        <v>081283388545</v>
+        <v>6281283389545</v>
       </c>
       <c r="G95" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A95</f>
+        <f aca="false">IF(LEN(A95) &lt; 2,"AA5_0"&amp;A95,"AA5_"&amp;A95)</f>
         <v>AA5_95</v>
       </c>
     </row>
@@ -10472,10 +10532,10 @@
       </c>
       <c r="F96" s="0" t="str">
         <f aca="false">$D$91&amp;E96</f>
-        <v>081283388546</v>
+        <v>6281283389546</v>
       </c>
       <c r="G96" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A96</f>
+        <f aca="false">IF(LEN(A96) &lt; 2,"AA5_0"&amp;A96,"AA5_"&amp;A96)</f>
         <v>AA5_96</v>
       </c>
     </row>
@@ -10488,10 +10548,10 @@
       </c>
       <c r="F97" s="0" t="str">
         <f aca="false">$D$91&amp;E97</f>
-        <v>081283388547</v>
+        <v>6281283389547</v>
       </c>
       <c r="G97" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A97</f>
+        <f aca="false">IF(LEN(A97) &lt; 2,"AA5_0"&amp;A97,"AA5_"&amp;A97)</f>
         <v>AA5_97</v>
       </c>
     </row>
@@ -10504,10 +10564,10 @@
       </c>
       <c r="F98" s="0" t="str">
         <f aca="false">$D$91&amp;E98</f>
-        <v>081283388548</v>
+        <v>6281283389548</v>
       </c>
       <c r="G98" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A98</f>
+        <f aca="false">IF(LEN(A98) &lt; 2,"AA5_0"&amp;A98,"AA5_"&amp;A98)</f>
         <v>AA5_98</v>
       </c>
     </row>
@@ -10520,10 +10580,10 @@
       </c>
       <c r="F99" s="0" t="str">
         <f aca="false">$D$91&amp;E99</f>
-        <v>081283388549</v>
+        <v>6281283389549</v>
       </c>
       <c r="G99" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A99</f>
+        <f aca="false">IF(LEN(A99) &lt; 2,"AA5_0"&amp;A99,"AA5_"&amp;A99)</f>
         <v>AA5_99</v>
       </c>
     </row>
@@ -10536,10 +10596,10 @@
       </c>
       <c r="F100" s="0" t="str">
         <f aca="false">$D$91&amp;E100</f>
-        <v>081283388540</v>
+        <v>6281283389540</v>
       </c>
       <c r="G100" s="0" t="str">
-        <f aca="false">"AA5_"&amp;A100</f>
+        <f aca="false">IF(LEN(A100) &lt; 2,"AA5_0"&amp;A100,"AA5_"&amp;A100)</f>
         <v>AA5_100</v>
       </c>
     </row>
@@ -10557,16 +10617,16 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="F1:F100 D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1:G100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -10592,11 +10652,11 @@
       </c>
       <c r="F1" s="0" t="str">
         <f aca="false">$D$1&amp;E1</f>
-        <v>081283388651</v>
+        <v>6281283389651</v>
       </c>
       <c r="G1" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A1</f>
-        <v>AA6_1</v>
+        <f aca="false">IF(LEN(A1) &lt; 2,"AA6_0"&amp;A1,"AA6_"&amp;A1)</f>
+        <v>AA6_01</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10608,11 +10668,11 @@
       </c>
       <c r="F2" s="0" t="str">
         <f aca="false">$D$1&amp;E2</f>
-        <v>081283388652</v>
+        <v>6281283389652</v>
       </c>
       <c r="G2" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A2</f>
-        <v>AA6_2</v>
+        <f aca="false">IF(LEN(A2) &lt; 2,"AA6_0"&amp;A2,"AA6_"&amp;A2)</f>
+        <v>AA6_02</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10624,11 +10684,11 @@
       </c>
       <c r="F3" s="0" t="str">
         <f aca="false">$D$1&amp;E3</f>
-        <v>081283388653</v>
+        <v>6281283389653</v>
       </c>
       <c r="G3" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A3</f>
-        <v>AA6_3</v>
+        <f aca="false">IF(LEN(A3) &lt; 2,"AA6_0"&amp;A3,"AA6_"&amp;A3)</f>
+        <v>AA6_03</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10640,11 +10700,11 @@
       </c>
       <c r="F4" s="0" t="str">
         <f aca="false">$D$1&amp;E4</f>
-        <v>081283388654</v>
+        <v>6281283389654</v>
       </c>
       <c r="G4" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A4</f>
-        <v>AA6_4</v>
+        <f aca="false">IF(LEN(A4) &lt; 2,"AA6_0"&amp;A4,"AA6_"&amp;A4)</f>
+        <v>AA6_04</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10656,11 +10716,11 @@
       </c>
       <c r="F5" s="0" t="str">
         <f aca="false">$D$1&amp;E5</f>
-        <v>081283388655</v>
+        <v>6281283389655</v>
       </c>
       <c r="G5" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A5</f>
-        <v>AA6_5</v>
+        <f aca="false">IF(LEN(A5) &lt; 2,"AA6_0"&amp;A5,"AA6_"&amp;A5)</f>
+        <v>AA6_05</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10672,11 +10732,11 @@
       </c>
       <c r="F6" s="0" t="str">
         <f aca="false">$D$1&amp;E6</f>
-        <v>081283388656</v>
+        <v>6281283389656</v>
       </c>
       <c r="G6" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A6</f>
-        <v>AA6_6</v>
+        <f aca="false">IF(LEN(A6) &lt; 2,"AA6_0"&amp;A6,"AA6_"&amp;A6)</f>
+        <v>AA6_06</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10688,11 +10748,11 @@
       </c>
       <c r="F7" s="0" t="str">
         <f aca="false">$D$1&amp;E7</f>
-        <v>081283388657</v>
+        <v>6281283389657</v>
       </c>
       <c r="G7" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A7</f>
-        <v>AA6_7</v>
+        <f aca="false">IF(LEN(A7) &lt; 2,"AA6_0"&amp;A7,"AA6_"&amp;A7)</f>
+        <v>AA6_07</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10704,11 +10764,11 @@
       </c>
       <c r="F8" s="0" t="str">
         <f aca="false">$D$1&amp;E8</f>
-        <v>081283388658</v>
+        <v>6281283389658</v>
       </c>
       <c r="G8" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A8</f>
-        <v>AA6_8</v>
+        <f aca="false">IF(LEN(A8) &lt; 2,"AA6_0"&amp;A8,"AA6_"&amp;A8)</f>
+        <v>AA6_08</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10720,11 +10780,11 @@
       </c>
       <c r="F9" s="0" t="str">
         <f aca="false">$D$1&amp;E9</f>
-        <v>081283388659</v>
+        <v>6281283389659</v>
       </c>
       <c r="G9" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A9</f>
-        <v>AA6_9</v>
+        <f aca="false">IF(LEN(A9) &lt; 2,"AA6_0"&amp;A9,"AA6_"&amp;A9)</f>
+        <v>AA6_09</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10736,10 +10796,10 @@
       </c>
       <c r="F10" s="0" t="str">
         <f aca="false">$D$1&amp;E10</f>
-        <v>081283388650</v>
+        <v>6281283389650</v>
       </c>
       <c r="G10" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A10</f>
+        <f aca="false">IF(LEN(A10) &lt; 2,"AA6_0"&amp;A10,"AA6_"&amp;A10)</f>
         <v>AA6_10</v>
       </c>
     </row>
@@ -10758,10 +10818,10 @@
       </c>
       <c r="F11" s="0" t="str">
         <f aca="false">$D$11&amp;E11</f>
-        <v>081283388661</v>
+        <v>6281283389661</v>
       </c>
       <c r="G11" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A11</f>
+        <f aca="false">IF(LEN(A11) &lt; 2,"AA6_0"&amp;A11,"AA6_"&amp;A11)</f>
         <v>AA6_11</v>
       </c>
     </row>
@@ -10774,10 +10834,10 @@
       </c>
       <c r="F12" s="0" t="str">
         <f aca="false">$D$11&amp;E12</f>
-        <v>081283388662</v>
+        <v>6281283389662</v>
       </c>
       <c r="G12" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A12</f>
+        <f aca="false">IF(LEN(A12) &lt; 2,"AA6_0"&amp;A12,"AA6_"&amp;A12)</f>
         <v>AA6_12</v>
       </c>
     </row>
@@ -10790,10 +10850,10 @@
       </c>
       <c r="F13" s="0" t="str">
         <f aca="false">$D$11&amp;E13</f>
-        <v>081283388663</v>
+        <v>6281283389663</v>
       </c>
       <c r="G13" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A13</f>
+        <f aca="false">IF(LEN(A13) &lt; 2,"AA6_0"&amp;A13,"AA6_"&amp;A13)</f>
         <v>AA6_13</v>
       </c>
     </row>
@@ -10806,10 +10866,10 @@
       </c>
       <c r="F14" s="0" t="str">
         <f aca="false">$D$11&amp;E14</f>
-        <v>081283388664</v>
+        <v>6281283389664</v>
       </c>
       <c r="G14" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A14</f>
+        <f aca="false">IF(LEN(A14) &lt; 2,"AA6_0"&amp;A14,"AA6_"&amp;A14)</f>
         <v>AA6_14</v>
       </c>
     </row>
@@ -10822,10 +10882,10 @@
       </c>
       <c r="F15" s="0" t="str">
         <f aca="false">$D$11&amp;E15</f>
-        <v>081283388665</v>
+        <v>6281283389665</v>
       </c>
       <c r="G15" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A15</f>
+        <f aca="false">IF(LEN(A15) &lt; 2,"AA6_0"&amp;A15,"AA6_"&amp;A15)</f>
         <v>AA6_15</v>
       </c>
     </row>
@@ -10838,10 +10898,10 @@
       </c>
       <c r="F16" s="0" t="str">
         <f aca="false">$D$11&amp;E16</f>
-        <v>081283388666</v>
+        <v>6281283389666</v>
       </c>
       <c r="G16" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A16</f>
+        <f aca="false">IF(LEN(A16) &lt; 2,"AA6_0"&amp;A16,"AA6_"&amp;A16)</f>
         <v>AA6_16</v>
       </c>
     </row>
@@ -10854,10 +10914,10 @@
       </c>
       <c r="F17" s="0" t="str">
         <f aca="false">$D$11&amp;E17</f>
-        <v>081283388667</v>
+        <v>6281283389667</v>
       </c>
       <c r="G17" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A17</f>
+        <f aca="false">IF(LEN(A17) &lt; 2,"AA6_0"&amp;A17,"AA6_"&amp;A17)</f>
         <v>AA6_17</v>
       </c>
     </row>
@@ -10870,10 +10930,10 @@
       </c>
       <c r="F18" s="0" t="str">
         <f aca="false">$D$11&amp;E18</f>
-        <v>081283388668</v>
+        <v>6281283389668</v>
       </c>
       <c r="G18" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A18</f>
+        <f aca="false">IF(LEN(A18) &lt; 2,"AA6_0"&amp;A18,"AA6_"&amp;A18)</f>
         <v>AA6_18</v>
       </c>
     </row>
@@ -10886,10 +10946,10 @@
       </c>
       <c r="F19" s="0" t="str">
         <f aca="false">$D$11&amp;E19</f>
-        <v>081283388669</v>
+        <v>6281283389669</v>
       </c>
       <c r="G19" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A19</f>
+        <f aca="false">IF(LEN(A19) &lt; 2,"AA6_0"&amp;A19,"AA6_"&amp;A19)</f>
         <v>AA6_19</v>
       </c>
     </row>
@@ -10902,10 +10962,10 @@
       </c>
       <c r="F20" s="0" t="str">
         <f aca="false">$D$11&amp;E20</f>
-        <v>081283388660</v>
+        <v>6281283389660</v>
       </c>
       <c r="G20" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A20</f>
+        <f aca="false">IF(LEN(A20) &lt; 2,"AA6_0"&amp;A20,"AA6_"&amp;A20)</f>
         <v>AA6_20</v>
       </c>
     </row>
@@ -10924,10 +10984,10 @@
       </c>
       <c r="F21" s="0" t="str">
         <f aca="false">$D$21&amp;E21</f>
-        <v>081283388671</v>
+        <v>6281283389671</v>
       </c>
       <c r="G21" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A21</f>
+        <f aca="false">IF(LEN(A21) &lt; 2,"AA6_0"&amp;A21,"AA6_"&amp;A21)</f>
         <v>AA6_21</v>
       </c>
     </row>
@@ -10940,10 +11000,10 @@
       </c>
       <c r="F22" s="0" t="str">
         <f aca="false">$D$21&amp;E22</f>
-        <v>081283388672</v>
+        <v>6281283389672</v>
       </c>
       <c r="G22" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A22</f>
+        <f aca="false">IF(LEN(A22) &lt; 2,"AA6_0"&amp;A22,"AA6_"&amp;A22)</f>
         <v>AA6_22</v>
       </c>
     </row>
@@ -10956,10 +11016,10 @@
       </c>
       <c r="F23" s="0" t="str">
         <f aca="false">$D$21&amp;E23</f>
-        <v>081283388673</v>
+        <v>6281283389673</v>
       </c>
       <c r="G23" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A23</f>
+        <f aca="false">IF(LEN(A23) &lt; 2,"AA6_0"&amp;A23,"AA6_"&amp;A23)</f>
         <v>AA6_23</v>
       </c>
     </row>
@@ -10972,10 +11032,10 @@
       </c>
       <c r="F24" s="0" t="str">
         <f aca="false">$D$21&amp;E24</f>
-        <v>081283388674</v>
+        <v>6281283389674</v>
       </c>
       <c r="G24" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A24</f>
+        <f aca="false">IF(LEN(A24) &lt; 2,"AA6_0"&amp;A24,"AA6_"&amp;A24)</f>
         <v>AA6_24</v>
       </c>
     </row>
@@ -10988,10 +11048,10 @@
       </c>
       <c r="F25" s="0" t="str">
         <f aca="false">$D$21&amp;E25</f>
-        <v>081283388675</v>
+        <v>6281283389675</v>
       </c>
       <c r="G25" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A25</f>
+        <f aca="false">IF(LEN(A25) &lt; 2,"AA6_0"&amp;A25,"AA6_"&amp;A25)</f>
         <v>AA6_25</v>
       </c>
     </row>
@@ -11004,10 +11064,10 @@
       </c>
       <c r="F26" s="0" t="str">
         <f aca="false">$D$21&amp;E26</f>
-        <v>081283388676</v>
+        <v>6281283389676</v>
       </c>
       <c r="G26" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A26</f>
+        <f aca="false">IF(LEN(A26) &lt; 2,"AA6_0"&amp;A26,"AA6_"&amp;A26)</f>
         <v>AA6_26</v>
       </c>
     </row>
@@ -11020,10 +11080,10 @@
       </c>
       <c r="F27" s="0" t="str">
         <f aca="false">$D$21&amp;E27</f>
-        <v>081283388677</v>
+        <v>6281283389677</v>
       </c>
       <c r="G27" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A27</f>
+        <f aca="false">IF(LEN(A27) &lt; 2,"AA6_0"&amp;A27,"AA6_"&amp;A27)</f>
         <v>AA6_27</v>
       </c>
     </row>
@@ -11036,10 +11096,10 @@
       </c>
       <c r="F28" s="0" t="str">
         <f aca="false">$D$21&amp;E28</f>
-        <v>081283388678</v>
+        <v>6281283389678</v>
       </c>
       <c r="G28" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A28</f>
+        <f aca="false">IF(LEN(A28) &lt; 2,"AA6_0"&amp;A28,"AA6_"&amp;A28)</f>
         <v>AA6_28</v>
       </c>
     </row>
@@ -11052,10 +11112,10 @@
       </c>
       <c r="F29" s="0" t="str">
         <f aca="false">$D$21&amp;E29</f>
-        <v>081283388679</v>
+        <v>6281283389679</v>
       </c>
       <c r="G29" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A29</f>
+        <f aca="false">IF(LEN(A29) &lt; 2,"AA6_0"&amp;A29,"AA6_"&amp;A29)</f>
         <v>AA6_29</v>
       </c>
     </row>
@@ -11068,10 +11128,10 @@
       </c>
       <c r="F30" s="0" t="str">
         <f aca="false">$D$21&amp;E30</f>
-        <v>081283388670</v>
+        <v>6281283389670</v>
       </c>
       <c r="G30" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A30</f>
+        <f aca="false">IF(LEN(A30) &lt; 2,"AA6_0"&amp;A30,"AA6_"&amp;A30)</f>
         <v>AA6_30</v>
       </c>
     </row>
@@ -11090,10 +11150,10 @@
       </c>
       <c r="F31" s="0" t="str">
         <f aca="false">$D$31&amp;E31</f>
-        <v>081283388681</v>
+        <v>6281283389681</v>
       </c>
       <c r="G31" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A31</f>
+        <f aca="false">IF(LEN(A31) &lt; 2,"AA6_0"&amp;A31,"AA6_"&amp;A31)</f>
         <v>AA6_31</v>
       </c>
     </row>
@@ -11106,10 +11166,10 @@
       </c>
       <c r="F32" s="0" t="str">
         <f aca="false">$D$31&amp;E32</f>
-        <v>081283388682</v>
+        <v>6281283389682</v>
       </c>
       <c r="G32" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A32</f>
+        <f aca="false">IF(LEN(A32) &lt; 2,"AA6_0"&amp;A32,"AA6_"&amp;A32)</f>
         <v>AA6_32</v>
       </c>
     </row>
@@ -11122,10 +11182,10 @@
       </c>
       <c r="F33" s="0" t="str">
         <f aca="false">$D$31&amp;E33</f>
-        <v>081283388683</v>
+        <v>6281283389683</v>
       </c>
       <c r="G33" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A33</f>
+        <f aca="false">IF(LEN(A33) &lt; 2,"AA6_0"&amp;A33,"AA6_"&amp;A33)</f>
         <v>AA6_33</v>
       </c>
     </row>
@@ -11138,10 +11198,10 @@
       </c>
       <c r="F34" s="0" t="str">
         <f aca="false">$D$31&amp;E34</f>
-        <v>081283388684</v>
+        <v>6281283389684</v>
       </c>
       <c r="G34" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A34</f>
+        <f aca="false">IF(LEN(A34) &lt; 2,"AA6_0"&amp;A34,"AA6_"&amp;A34)</f>
         <v>AA6_34</v>
       </c>
     </row>
@@ -11154,10 +11214,10 @@
       </c>
       <c r="F35" s="0" t="str">
         <f aca="false">$D$31&amp;E35</f>
-        <v>081283388685</v>
+        <v>6281283389685</v>
       </c>
       <c r="G35" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A35</f>
+        <f aca="false">IF(LEN(A35) &lt; 2,"AA6_0"&amp;A35,"AA6_"&amp;A35)</f>
         <v>AA6_35</v>
       </c>
     </row>
@@ -11170,10 +11230,10 @@
       </c>
       <c r="F36" s="0" t="str">
         <f aca="false">$D$31&amp;E36</f>
-        <v>081283388686</v>
+        <v>6281283389686</v>
       </c>
       <c r="G36" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A36</f>
+        <f aca="false">IF(LEN(A36) &lt; 2,"AA6_0"&amp;A36,"AA6_"&amp;A36)</f>
         <v>AA6_36</v>
       </c>
     </row>
@@ -11186,10 +11246,10 @@
       </c>
       <c r="F37" s="0" t="str">
         <f aca="false">$D$31&amp;E37</f>
-        <v>081283388687</v>
+        <v>6281283389687</v>
       </c>
       <c r="G37" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A37</f>
+        <f aca="false">IF(LEN(A37) &lt; 2,"AA6_0"&amp;A37,"AA6_"&amp;A37)</f>
         <v>AA6_37</v>
       </c>
     </row>
@@ -11202,10 +11262,10 @@
       </c>
       <c r="F38" s="0" t="str">
         <f aca="false">$D$31&amp;E38</f>
-        <v>081283388688</v>
+        <v>6281283389688</v>
       </c>
       <c r="G38" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A38</f>
+        <f aca="false">IF(LEN(A38) &lt; 2,"AA6_0"&amp;A38,"AA6_"&amp;A38)</f>
         <v>AA6_38</v>
       </c>
     </row>
@@ -11218,10 +11278,10 @@
       </c>
       <c r="F39" s="0" t="str">
         <f aca="false">$D$31&amp;E39</f>
-        <v>081283388689</v>
+        <v>6281283389689</v>
       </c>
       <c r="G39" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A39</f>
+        <f aca="false">IF(LEN(A39) &lt; 2,"AA6_0"&amp;A39,"AA6_"&amp;A39)</f>
         <v>AA6_39</v>
       </c>
     </row>
@@ -11234,10 +11294,10 @@
       </c>
       <c r="F40" s="0" t="str">
         <f aca="false">$D$31&amp;E40</f>
-        <v>081283388680</v>
+        <v>6281283389680</v>
       </c>
       <c r="G40" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A40</f>
+        <f aca="false">IF(LEN(A40) &lt; 2,"AA6_0"&amp;A40,"AA6_"&amp;A40)</f>
         <v>AA6_40</v>
       </c>
     </row>
@@ -11256,10 +11316,10 @@
       </c>
       <c r="F41" s="0" t="str">
         <f aca="false">$D$41&amp;E41</f>
-        <v>081283388691</v>
+        <v>6281283389691</v>
       </c>
       <c r="G41" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A41</f>
+        <f aca="false">IF(LEN(A41) &lt; 2,"AA6_0"&amp;A41,"AA6_"&amp;A41)</f>
         <v>AA6_41</v>
       </c>
     </row>
@@ -11272,10 +11332,10 @@
       </c>
       <c r="F42" s="0" t="str">
         <f aca="false">$D$41&amp;E42</f>
-        <v>081283388692</v>
+        <v>6281283389692</v>
       </c>
       <c r="G42" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A42</f>
+        <f aca="false">IF(LEN(A42) &lt; 2,"AA6_0"&amp;A42,"AA6_"&amp;A42)</f>
         <v>AA6_42</v>
       </c>
     </row>
@@ -11288,10 +11348,10 @@
       </c>
       <c r="F43" s="0" t="str">
         <f aca="false">$D$41&amp;E43</f>
-        <v>081283388693</v>
+        <v>6281283389693</v>
       </c>
       <c r="G43" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A43</f>
+        <f aca="false">IF(LEN(A43) &lt; 2,"AA6_0"&amp;A43,"AA6_"&amp;A43)</f>
         <v>AA6_43</v>
       </c>
     </row>
@@ -11304,10 +11364,10 @@
       </c>
       <c r="F44" s="0" t="str">
         <f aca="false">$D$41&amp;E44</f>
-        <v>081283388694</v>
+        <v>6281283389694</v>
       </c>
       <c r="G44" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A44</f>
+        <f aca="false">IF(LEN(A44) &lt; 2,"AA6_0"&amp;A44,"AA6_"&amp;A44)</f>
         <v>AA6_44</v>
       </c>
     </row>
@@ -11320,10 +11380,10 @@
       </c>
       <c r="F45" s="0" t="str">
         <f aca="false">$D$41&amp;E45</f>
-        <v>081283388695</v>
+        <v>6281283389695</v>
       </c>
       <c r="G45" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A45</f>
+        <f aca="false">IF(LEN(A45) &lt; 2,"AA6_0"&amp;A45,"AA6_"&amp;A45)</f>
         <v>AA6_45</v>
       </c>
     </row>
@@ -11336,10 +11396,10 @@
       </c>
       <c r="F46" s="0" t="str">
         <f aca="false">$D$41&amp;E46</f>
-        <v>081283388696</v>
+        <v>6281283389696</v>
       </c>
       <c r="G46" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A46</f>
+        <f aca="false">IF(LEN(A46) &lt; 2,"AA6_0"&amp;A46,"AA6_"&amp;A46)</f>
         <v>AA6_46</v>
       </c>
     </row>
@@ -11352,10 +11412,10 @@
       </c>
       <c r="F47" s="0" t="str">
         <f aca="false">$D$41&amp;E47</f>
-        <v>081283388697</v>
+        <v>6281283389697</v>
       </c>
       <c r="G47" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A47</f>
+        <f aca="false">IF(LEN(A47) &lt; 2,"AA6_0"&amp;A47,"AA6_"&amp;A47)</f>
         <v>AA6_47</v>
       </c>
     </row>
@@ -11368,10 +11428,10 @@
       </c>
       <c r="F48" s="0" t="str">
         <f aca="false">$D$41&amp;E48</f>
-        <v>081283388698</v>
+        <v>6281283389698</v>
       </c>
       <c r="G48" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A48</f>
+        <f aca="false">IF(LEN(A48) &lt; 2,"AA6_0"&amp;A48,"AA6_"&amp;A48)</f>
         <v>AA6_48</v>
       </c>
     </row>
@@ -11384,10 +11444,10 @@
       </c>
       <c r="F49" s="0" t="str">
         <f aca="false">$D$41&amp;E49</f>
-        <v>081283388699</v>
+        <v>6281283389699</v>
       </c>
       <c r="G49" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A49</f>
+        <f aca="false">IF(LEN(A49) &lt; 2,"AA6_0"&amp;A49,"AA6_"&amp;A49)</f>
         <v>AA6_49</v>
       </c>
     </row>
@@ -11400,10 +11460,10 @@
       </c>
       <c r="F50" s="0" t="str">
         <f aca="false">$D$41&amp;E50</f>
-        <v>081283388690</v>
+        <v>6281283389690</v>
       </c>
       <c r="G50" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A50</f>
+        <f aca="false">IF(LEN(A50) &lt; 2,"AA6_0"&amp;A50,"AA6_"&amp;A50)</f>
         <v>AA6_50</v>
       </c>
     </row>
@@ -11422,10 +11482,10 @@
       </c>
       <c r="F51" s="0" t="str">
         <f aca="false">$D$51&amp;E51</f>
-        <v>081283388601</v>
+        <v>6281283389601</v>
       </c>
       <c r="G51" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A51</f>
+        <f aca="false">IF(LEN(A51) &lt; 2,"AA6_0"&amp;A51,"AA6_"&amp;A51)</f>
         <v>AA6_51</v>
       </c>
     </row>
@@ -11438,10 +11498,10 @@
       </c>
       <c r="F52" s="0" t="str">
         <f aca="false">$D$51&amp;E52</f>
-        <v>081283388602</v>
+        <v>6281283389602</v>
       </c>
       <c r="G52" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A52</f>
+        <f aca="false">IF(LEN(A52) &lt; 2,"AA6_0"&amp;A52,"AA6_"&amp;A52)</f>
         <v>AA6_52</v>
       </c>
     </row>
@@ -11454,10 +11514,10 @@
       </c>
       <c r="F53" s="0" t="str">
         <f aca="false">$D$51&amp;E53</f>
-        <v>081283388603</v>
+        <v>6281283389603</v>
       </c>
       <c r="G53" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A53</f>
+        <f aca="false">IF(LEN(A53) &lt; 2,"AA6_0"&amp;A53,"AA6_"&amp;A53)</f>
         <v>AA6_53</v>
       </c>
     </row>
@@ -11470,10 +11530,10 @@
       </c>
       <c r="F54" s="0" t="str">
         <f aca="false">$D$51&amp;E54</f>
-        <v>081283388604</v>
+        <v>6281283389604</v>
       </c>
       <c r="G54" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A54</f>
+        <f aca="false">IF(LEN(A54) &lt; 2,"AA6_0"&amp;A54,"AA6_"&amp;A54)</f>
         <v>AA6_54</v>
       </c>
     </row>
@@ -11486,10 +11546,10 @@
       </c>
       <c r="F55" s="0" t="str">
         <f aca="false">$D$51&amp;E55</f>
-        <v>081283388605</v>
+        <v>6281283389605</v>
       </c>
       <c r="G55" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A55</f>
+        <f aca="false">IF(LEN(A55) &lt; 2,"AA6_0"&amp;A55,"AA6_"&amp;A55)</f>
         <v>AA6_55</v>
       </c>
     </row>
@@ -11502,10 +11562,10 @@
       </c>
       <c r="F56" s="0" t="str">
         <f aca="false">$D$51&amp;E56</f>
-        <v>081283388606</v>
+        <v>6281283389606</v>
       </c>
       <c r="G56" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A56</f>
+        <f aca="false">IF(LEN(A56) &lt; 2,"AA6_0"&amp;A56,"AA6_"&amp;A56)</f>
         <v>AA6_56</v>
       </c>
     </row>
@@ -11518,10 +11578,10 @@
       </c>
       <c r="F57" s="0" t="str">
         <f aca="false">$D$51&amp;E57</f>
-        <v>081283388607</v>
+        <v>6281283389607</v>
       </c>
       <c r="G57" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A57</f>
+        <f aca="false">IF(LEN(A57) &lt; 2,"AA6_0"&amp;A57,"AA6_"&amp;A57)</f>
         <v>AA6_57</v>
       </c>
     </row>
@@ -11534,10 +11594,10 @@
       </c>
       <c r="F58" s="0" t="str">
         <f aca="false">$D$51&amp;E58</f>
-        <v>081283388608</v>
+        <v>6281283389608</v>
       </c>
       <c r="G58" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A58</f>
+        <f aca="false">IF(LEN(A58) &lt; 2,"AA6_0"&amp;A58,"AA6_"&amp;A58)</f>
         <v>AA6_58</v>
       </c>
     </row>
@@ -11550,10 +11610,10 @@
       </c>
       <c r="F59" s="0" t="str">
         <f aca="false">$D$51&amp;E59</f>
-        <v>081283388609</v>
+        <v>6281283389609</v>
       </c>
       <c r="G59" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A59</f>
+        <f aca="false">IF(LEN(A59) &lt; 2,"AA6_0"&amp;A59,"AA6_"&amp;A59)</f>
         <v>AA6_59</v>
       </c>
     </row>
@@ -11566,10 +11626,10 @@
       </c>
       <c r="F60" s="0" t="str">
         <f aca="false">$D$51&amp;E60</f>
-        <v>081283388600</v>
+        <v>6281283389600</v>
       </c>
       <c r="G60" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A60</f>
+        <f aca="false">IF(LEN(A60) &lt; 2,"AA6_0"&amp;A60,"AA6_"&amp;A60)</f>
         <v>AA6_60</v>
       </c>
     </row>
@@ -11585,10 +11645,10 @@
       </c>
       <c r="F61" s="0" t="str">
         <f aca="false">$D$61&amp;E61</f>
-        <v>081283388611</v>
+        <v>6281283389611</v>
       </c>
       <c r="G61" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A61</f>
+        <f aca="false">IF(LEN(A61) &lt; 2,"AA6_0"&amp;A61,"AA6_"&amp;A61)</f>
         <v>AA6_61</v>
       </c>
     </row>
@@ -11601,10 +11661,10 @@
       </c>
       <c r="F62" s="0" t="str">
         <f aca="false">$D$61&amp;E62</f>
-        <v>081283388612</v>
+        <v>6281283389612</v>
       </c>
       <c r="G62" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A62</f>
+        <f aca="false">IF(LEN(A62) &lt; 2,"AA6_0"&amp;A62,"AA6_"&amp;A62)</f>
         <v>AA6_62</v>
       </c>
     </row>
@@ -11617,10 +11677,10 @@
       </c>
       <c r="F63" s="0" t="str">
         <f aca="false">$D$61&amp;E63</f>
-        <v>081283388613</v>
+        <v>6281283389613</v>
       </c>
       <c r="G63" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A63</f>
+        <f aca="false">IF(LEN(A63) &lt; 2,"AA6_0"&amp;A63,"AA6_"&amp;A63)</f>
         <v>AA6_63</v>
       </c>
     </row>
@@ -11633,10 +11693,10 @@
       </c>
       <c r="F64" s="0" t="str">
         <f aca="false">$D$61&amp;E64</f>
-        <v>081283388614</v>
+        <v>6281283389614</v>
       </c>
       <c r="G64" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A64</f>
+        <f aca="false">IF(LEN(A64) &lt; 2,"AA6_0"&amp;A64,"AA6_"&amp;A64)</f>
         <v>AA6_64</v>
       </c>
     </row>
@@ -11649,10 +11709,10 @@
       </c>
       <c r="F65" s="0" t="str">
         <f aca="false">$D$61&amp;E65</f>
-        <v>081283388615</v>
+        <v>6281283389615</v>
       </c>
       <c r="G65" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A65</f>
+        <f aca="false">IF(LEN(A65) &lt; 2,"AA6_0"&amp;A65,"AA6_"&amp;A65)</f>
         <v>AA6_65</v>
       </c>
     </row>
@@ -11665,10 +11725,10 @@
       </c>
       <c r="F66" s="0" t="str">
         <f aca="false">$D$61&amp;E66</f>
-        <v>081283388616</v>
+        <v>6281283389616</v>
       </c>
       <c r="G66" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A66</f>
+        <f aca="false">IF(LEN(A66) &lt; 2,"AA6_0"&amp;A66,"AA6_"&amp;A66)</f>
         <v>AA6_66</v>
       </c>
     </row>
@@ -11681,10 +11741,10 @@
       </c>
       <c r="F67" s="0" t="str">
         <f aca="false">$D$61&amp;E67</f>
-        <v>081283388617</v>
+        <v>6281283389617</v>
       </c>
       <c r="G67" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A67</f>
+        <f aca="false">IF(LEN(A67) &lt; 2,"AA6_0"&amp;A67,"AA6_"&amp;A67)</f>
         <v>AA6_67</v>
       </c>
     </row>
@@ -11697,10 +11757,10 @@
       </c>
       <c r="F68" s="0" t="str">
         <f aca="false">$D$61&amp;E68</f>
-        <v>081283388618</v>
+        <v>6281283389618</v>
       </c>
       <c r="G68" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A68</f>
+        <f aca="false">IF(LEN(A68) &lt; 2,"AA6_0"&amp;A68,"AA6_"&amp;A68)</f>
         <v>AA6_68</v>
       </c>
     </row>
@@ -11713,10 +11773,10 @@
       </c>
       <c r="F69" s="0" t="str">
         <f aca="false">$D$61&amp;E69</f>
-        <v>081283388619</v>
+        <v>6281283389619</v>
       </c>
       <c r="G69" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A69</f>
+        <f aca="false">IF(LEN(A69) &lt; 2,"AA6_0"&amp;A69,"AA6_"&amp;A69)</f>
         <v>AA6_69</v>
       </c>
     </row>
@@ -11729,10 +11789,10 @@
       </c>
       <c r="F70" s="0" t="str">
         <f aca="false">$D$61&amp;E70</f>
-        <v>081283388610</v>
+        <v>6281283389610</v>
       </c>
       <c r="G70" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A70</f>
+        <f aca="false">IF(LEN(A70) &lt; 2,"AA6_0"&amp;A70,"AA6_"&amp;A70)</f>
         <v>AA6_70</v>
       </c>
     </row>
@@ -11748,10 +11808,10 @@
       </c>
       <c r="F71" s="0" t="str">
         <f aca="false">$D$71&amp;E71</f>
-        <v>081283388621</v>
+        <v>6281283389621</v>
       </c>
       <c r="G71" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A71</f>
+        <f aca="false">IF(LEN(A71) &lt; 2,"AA6_0"&amp;A71,"AA6_"&amp;A71)</f>
         <v>AA6_71</v>
       </c>
     </row>
@@ -11764,10 +11824,10 @@
       </c>
       <c r="F72" s="0" t="str">
         <f aca="false">$D$71&amp;E72</f>
-        <v>081283388622</v>
+        <v>6281283389622</v>
       </c>
       <c r="G72" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A72</f>
+        <f aca="false">IF(LEN(A72) &lt; 2,"AA6_0"&amp;A72,"AA6_"&amp;A72)</f>
         <v>AA6_72</v>
       </c>
     </row>
@@ -11780,10 +11840,10 @@
       </c>
       <c r="F73" s="0" t="str">
         <f aca="false">$D$71&amp;E73</f>
-        <v>081283388623</v>
+        <v>6281283389623</v>
       </c>
       <c r="G73" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A73</f>
+        <f aca="false">IF(LEN(A73) &lt; 2,"AA6_0"&amp;A73,"AA6_"&amp;A73)</f>
         <v>AA6_73</v>
       </c>
     </row>
@@ -11796,10 +11856,10 @@
       </c>
       <c r="F74" s="0" t="str">
         <f aca="false">$D$71&amp;E74</f>
-        <v>081283388624</v>
+        <v>6281283389624</v>
       </c>
       <c r="G74" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A74</f>
+        <f aca="false">IF(LEN(A74) &lt; 2,"AA6_0"&amp;A74,"AA6_"&amp;A74)</f>
         <v>AA6_74</v>
       </c>
     </row>
@@ -11812,10 +11872,10 @@
       </c>
       <c r="F75" s="0" t="str">
         <f aca="false">$D$71&amp;E75</f>
-        <v>081283388625</v>
+        <v>6281283389625</v>
       </c>
       <c r="G75" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A75</f>
+        <f aca="false">IF(LEN(A75) &lt; 2,"AA6_0"&amp;A75,"AA6_"&amp;A75)</f>
         <v>AA6_75</v>
       </c>
     </row>
@@ -11828,10 +11888,10 @@
       </c>
       <c r="F76" s="0" t="str">
         <f aca="false">$D$71&amp;E76</f>
-        <v>081283388626</v>
+        <v>6281283389626</v>
       </c>
       <c r="G76" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A76</f>
+        <f aca="false">IF(LEN(A76) &lt; 2,"AA6_0"&amp;A76,"AA6_"&amp;A76)</f>
         <v>AA6_76</v>
       </c>
     </row>
@@ -11844,10 +11904,10 @@
       </c>
       <c r="F77" s="0" t="str">
         <f aca="false">$D$71&amp;E77</f>
-        <v>081283388627</v>
+        <v>6281283389627</v>
       </c>
       <c r="G77" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A77</f>
+        <f aca="false">IF(LEN(A77) &lt; 2,"AA6_0"&amp;A77,"AA6_"&amp;A77)</f>
         <v>AA6_77</v>
       </c>
     </row>
@@ -11860,10 +11920,10 @@
       </c>
       <c r="F78" s="0" t="str">
         <f aca="false">$D$71&amp;E78</f>
-        <v>081283388628</v>
+        <v>6281283389628</v>
       </c>
       <c r="G78" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A78</f>
+        <f aca="false">IF(LEN(A78) &lt; 2,"AA6_0"&amp;A78,"AA6_"&amp;A78)</f>
         <v>AA6_78</v>
       </c>
     </row>
@@ -11876,10 +11936,10 @@
       </c>
       <c r="F79" s="0" t="str">
         <f aca="false">$D$71&amp;E79</f>
-        <v>081283388629</v>
+        <v>6281283389629</v>
       </c>
       <c r="G79" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A79</f>
+        <f aca="false">IF(LEN(A79) &lt; 2,"AA6_0"&amp;A79,"AA6_"&amp;A79)</f>
         <v>AA6_79</v>
       </c>
     </row>
@@ -11892,10 +11952,10 @@
       </c>
       <c r="F80" s="0" t="str">
         <f aca="false">$D$71&amp;E80</f>
-        <v>081283388620</v>
+        <v>6281283389620</v>
       </c>
       <c r="G80" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A80</f>
+        <f aca="false">IF(LEN(A80) &lt; 2,"AA6_0"&amp;A80,"AA6_"&amp;A80)</f>
         <v>AA6_80</v>
       </c>
     </row>
@@ -11911,10 +11971,10 @@
       </c>
       <c r="F81" s="0" t="str">
         <f aca="false">$D$81&amp;E81</f>
-        <v>081283388631</v>
+        <v>6281283389631</v>
       </c>
       <c r="G81" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A81</f>
+        <f aca="false">IF(LEN(A81) &lt; 2,"AA6_0"&amp;A81,"AA6_"&amp;A81)</f>
         <v>AA6_81</v>
       </c>
     </row>
@@ -11927,10 +11987,10 @@
       </c>
       <c r="F82" s="0" t="str">
         <f aca="false">$D$81&amp;E82</f>
-        <v>081283388632</v>
+        <v>6281283389632</v>
       </c>
       <c r="G82" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A82</f>
+        <f aca="false">IF(LEN(A82) &lt; 2,"AA6_0"&amp;A82,"AA6_"&amp;A82)</f>
         <v>AA6_82</v>
       </c>
     </row>
@@ -11943,10 +12003,10 @@
       </c>
       <c r="F83" s="0" t="str">
         <f aca="false">$D$81&amp;E83</f>
-        <v>081283388633</v>
+        <v>6281283389633</v>
       </c>
       <c r="G83" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A83</f>
+        <f aca="false">IF(LEN(A83) &lt; 2,"AA6_0"&amp;A83,"AA6_"&amp;A83)</f>
         <v>AA6_83</v>
       </c>
     </row>
@@ -11959,10 +12019,10 @@
       </c>
       <c r="F84" s="0" t="str">
         <f aca="false">$D$81&amp;E84</f>
-        <v>081283388634</v>
+        <v>6281283389634</v>
       </c>
       <c r="G84" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A84</f>
+        <f aca="false">IF(LEN(A84) &lt; 2,"AA6_0"&amp;A84,"AA6_"&amp;A84)</f>
         <v>AA6_84</v>
       </c>
     </row>
@@ -11975,10 +12035,10 @@
       </c>
       <c r="F85" s="0" t="str">
         <f aca="false">$D$81&amp;E85</f>
-        <v>081283388635</v>
+        <v>6281283389635</v>
       </c>
       <c r="G85" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A85</f>
+        <f aca="false">IF(LEN(A85) &lt; 2,"AA6_0"&amp;A85,"AA6_"&amp;A85)</f>
         <v>AA6_85</v>
       </c>
     </row>
@@ -11991,10 +12051,10 @@
       </c>
       <c r="F86" s="0" t="str">
         <f aca="false">$D$81&amp;E86</f>
-        <v>081283388636</v>
+        <v>6281283389636</v>
       </c>
       <c r="G86" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A86</f>
+        <f aca="false">IF(LEN(A86) &lt; 2,"AA6_0"&amp;A86,"AA6_"&amp;A86)</f>
         <v>AA6_86</v>
       </c>
     </row>
@@ -12007,10 +12067,10 @@
       </c>
       <c r="F87" s="0" t="str">
         <f aca="false">$D$81&amp;E87</f>
-        <v>081283388637</v>
+        <v>6281283389637</v>
       </c>
       <c r="G87" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A87</f>
+        <f aca="false">IF(LEN(A87) &lt; 2,"AA6_0"&amp;A87,"AA6_"&amp;A87)</f>
         <v>AA6_87</v>
       </c>
     </row>
@@ -12023,10 +12083,10 @@
       </c>
       <c r="F88" s="0" t="str">
         <f aca="false">$D$81&amp;E88</f>
-        <v>081283388638</v>
+        <v>6281283389638</v>
       </c>
       <c r="G88" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A88</f>
+        <f aca="false">IF(LEN(A88) &lt; 2,"AA6_0"&amp;A88,"AA6_"&amp;A88)</f>
         <v>AA6_88</v>
       </c>
     </row>
@@ -12039,10 +12099,10 @@
       </c>
       <c r="F89" s="0" t="str">
         <f aca="false">$D$81&amp;E89</f>
-        <v>081283388639</v>
+        <v>6281283389639</v>
       </c>
       <c r="G89" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A89</f>
+        <f aca="false">IF(LEN(A89) &lt; 2,"AA6_0"&amp;A89,"AA6_"&amp;A89)</f>
         <v>AA6_89</v>
       </c>
     </row>
@@ -12055,10 +12115,10 @@
       </c>
       <c r="F90" s="0" t="str">
         <f aca="false">$D$81&amp;E90</f>
-        <v>081283388630</v>
+        <v>6281283389630</v>
       </c>
       <c r="G90" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A90</f>
+        <f aca="false">IF(LEN(A90) &lt; 2,"AA6_0"&amp;A90,"AA6_"&amp;A90)</f>
         <v>AA6_90</v>
       </c>
     </row>
@@ -12074,10 +12134,10 @@
       </c>
       <c r="F91" s="0" t="str">
         <f aca="false">$D$91&amp;E91</f>
-        <v>081283388641</v>
+        <v>6281283389641</v>
       </c>
       <c r="G91" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A91</f>
+        <f aca="false">IF(LEN(A91) &lt; 2,"AA6_0"&amp;A91,"AA6_"&amp;A91)</f>
         <v>AA6_91</v>
       </c>
     </row>
@@ -12090,10 +12150,10 @@
       </c>
       <c r="F92" s="0" t="str">
         <f aca="false">$D$91&amp;E92</f>
-        <v>081283388642</v>
+        <v>6281283389642</v>
       </c>
       <c r="G92" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A92</f>
+        <f aca="false">IF(LEN(A92) &lt; 2,"AA6_0"&amp;A92,"AA6_"&amp;A92)</f>
         <v>AA6_92</v>
       </c>
     </row>
@@ -12106,10 +12166,10 @@
       </c>
       <c r="F93" s="0" t="str">
         <f aca="false">$D$91&amp;E93</f>
-        <v>081283388643</v>
+        <v>6281283389643</v>
       </c>
       <c r="G93" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A93</f>
+        <f aca="false">IF(LEN(A93) &lt; 2,"AA6_0"&amp;A93,"AA6_"&amp;A93)</f>
         <v>AA6_93</v>
       </c>
     </row>
@@ -12122,10 +12182,10 @@
       </c>
       <c r="F94" s="0" t="str">
         <f aca="false">$D$91&amp;E94</f>
-        <v>081283388644</v>
+        <v>6281283389644</v>
       </c>
       <c r="G94" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A94</f>
+        <f aca="false">IF(LEN(A94) &lt; 2,"AA6_0"&amp;A94,"AA6_"&amp;A94)</f>
         <v>AA6_94</v>
       </c>
     </row>
@@ -12138,10 +12198,10 @@
       </c>
       <c r="F95" s="0" t="str">
         <f aca="false">$D$91&amp;E95</f>
-        <v>081283388645</v>
+        <v>6281283389645</v>
       </c>
       <c r="G95" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A95</f>
+        <f aca="false">IF(LEN(A95) &lt; 2,"AA6_0"&amp;A95,"AA6_"&amp;A95)</f>
         <v>AA6_95</v>
       </c>
     </row>
@@ -12154,10 +12214,10 @@
       </c>
       <c r="F96" s="0" t="str">
         <f aca="false">$D$91&amp;E96</f>
-        <v>081283388646</v>
+        <v>6281283389646</v>
       </c>
       <c r="G96" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A96</f>
+        <f aca="false">IF(LEN(A96) &lt; 2,"AA6_0"&amp;A96,"AA6_"&amp;A96)</f>
         <v>AA6_96</v>
       </c>
     </row>
@@ -12170,10 +12230,10 @@
       </c>
       <c r="F97" s="0" t="str">
         <f aca="false">$D$91&amp;E97</f>
-        <v>081283388647</v>
+        <v>6281283389647</v>
       </c>
       <c r="G97" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A97</f>
+        <f aca="false">IF(LEN(A97) &lt; 2,"AA6_0"&amp;A97,"AA6_"&amp;A97)</f>
         <v>AA6_97</v>
       </c>
     </row>
@@ -12186,10 +12246,10 @@
       </c>
       <c r="F98" s="0" t="str">
         <f aca="false">$D$91&amp;E98</f>
-        <v>081283388648</v>
+        <v>6281283389648</v>
       </c>
       <c r="G98" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A98</f>
+        <f aca="false">IF(LEN(A98) &lt; 2,"AA6_0"&amp;A98,"AA6_"&amp;A98)</f>
         <v>AA6_98</v>
       </c>
     </row>
@@ -12202,10 +12262,10 @@
       </c>
       <c r="F99" s="0" t="str">
         <f aca="false">$D$91&amp;E99</f>
-        <v>081283388649</v>
+        <v>6281283389649</v>
       </c>
       <c r="G99" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A99</f>
+        <f aca="false">IF(LEN(A99) &lt; 2,"AA6_0"&amp;A99,"AA6_"&amp;A99)</f>
         <v>AA6_99</v>
       </c>
     </row>
@@ -12218,10 +12278,10 @@
       </c>
       <c r="F100" s="0" t="str">
         <f aca="false">$D$91&amp;E100</f>
-        <v>081283388640</v>
+        <v>6281283389640</v>
       </c>
       <c r="G100" s="0" t="str">
-        <f aca="false">"AA6_"&amp;A100</f>
+        <f aca="false">IF(LEN(A100) &lt; 2,"AA6_0"&amp;A100,"AA6_"&amp;A100)</f>
         <v>AA6_100</v>
       </c>
     </row>
@@ -12245,10 +12305,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="F1:F100 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1:G100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -13927,10 +13987,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="F1:F100 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1:G100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -15609,10 +15669,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="F1:F100 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1:G100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
